--- a/Grid_5x5/Solutions/Solution_NDP_S049/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S049/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -8241,13 +8241,13 @@
         <v>15.504</v>
       </c>
       <c r="L22" s="72">
-        <v>78.220999999999989</v>
+        <v>78.221000000000004</v>
       </c>
       <c r="M22" s="72">
         <v>25.524000000000001</v>
       </c>
       <c r="N22" s="72">
-        <v>93.724999999999994</v>
+        <v>93.725000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="72">
-        <v>93.724999999999994</v>
+        <v>93.725000000000009</v>
       </c>
       <c r="N23" s="72">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>80.215000000000003</v>
       </c>
       <c r="M29" s="72">
-        <v>35.79</v>
+        <v>35.790000000000006</v>
       </c>
       <c r="N29" s="72">
         <v>191.84100000000001</v>
@@ -8628,7 +8628,7 @@
         <v>124.57399999999998</v>
       </c>
       <c r="M31" s="72">
-        <v>37.178000000000004</v>
+        <v>37.177999999999997</v>
       </c>
       <c r="N31" s="72">
         <v>137.77699999999999</v>
@@ -8745,13 +8745,13 @@
         <v>22.307000000000002</v>
       </c>
       <c r="L34" s="72">
-        <v>89.364999999999995</v>
+        <v>89.365000000000009</v>
       </c>
       <c r="M34" s="72">
         <v>7.1260000000000003</v>
       </c>
       <c r="N34" s="72">
-        <v>111.672</v>
+        <v>111.67200000000001</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8789,13 +8789,13 @@
         <v>30.023000000000003</v>
       </c>
       <c r="L35" s="72">
-        <v>105.36699999999999</v>
+        <v>105.36700000000002</v>
       </c>
       <c r="M35" s="72">
         <v>6.3049999999999997</v>
       </c>
       <c r="N35" s="72">
-        <v>135.38999999999999</v>
+        <v>135.39000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8830,10 +8830,10 @@
         <v>70</v>
       </c>
       <c r="K36" s="72">
-        <v>89.73</v>
+        <v>89.72999999999999</v>
       </c>
       <c r="L36" s="72">
-        <v>124.50599999999999</v>
+        <v>124.506</v>
       </c>
       <c r="M36" s="72">
         <v>10.884</v>
@@ -8874,16 +8874,16 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>86.081000000000003</v>
+        <v>86.081000000000017</v>
       </c>
       <c r="L37" s="72">
-        <v>68.585999999999999</v>
+        <v>68.585999999999956</v>
       </c>
       <c r="M37" s="72">
-        <v>145.64999999999998</v>
+        <v>145.65</v>
       </c>
       <c r="N37" s="72">
-        <v>154.667</v>
+        <v>154.66699999999997</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8918,10 +8918,10 @@
         <v>70</v>
       </c>
       <c r="K38" s="72">
-        <v>56.894999999999996</v>
+        <v>56.895000000000003</v>
       </c>
       <c r="L38" s="72">
-        <v>139.04300000000001</v>
+        <v>139.04299999999998</v>
       </c>
       <c r="M38" s="72">
         <v>15.624000000000001</v>
@@ -8968,7 +8968,7 @@
         <v>159.76400000000001</v>
       </c>
       <c r="M39" s="72">
-        <v>36.174000000000007</v>
+        <v>36.173999999999999</v>
       </c>
       <c r="N39" s="72">
         <v>170.79300000000001</v>
@@ -9082,7 +9082,7 @@
         <v>70</v>
       </c>
       <c r="K42" s="72">
-        <v>93.521000000000015</v>
+        <v>93.521000000000001</v>
       </c>
       <c r="L42" s="72">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="72">
-        <v>93.521000000000015</v>
+        <v>93.521000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -9135,7 +9135,7 @@
         <v>6.9249999999999998</v>
       </c>
       <c r="N43" s="72">
-        <v>108.09699999999999</v>
+        <v>108.09700000000001</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -9170,7 +9170,7 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>28.820999999999998</v>
+        <v>28.821000000000005</v>
       </c>
       <c r="L44" s="72">
         <v>101.97400000000002</v>
@@ -9261,13 +9261,13 @@
         <v>62.927999999999997</v>
       </c>
       <c r="L46" s="72">
-        <v>52.77300000000001</v>
+        <v>52.773000000000025</v>
       </c>
       <c r="M46" s="72">
         <v>138.536</v>
       </c>
       <c r="N46" s="72">
-        <v>115.70100000000001</v>
+        <v>115.70100000000002</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9302,7 +9302,7 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>48.558999999999997</v>
+        <v>48.559000000000005</v>
       </c>
       <c r="L47" s="72">
         <v>100.953</v>
@@ -9466,7 +9466,7 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>92.611000000000004</v>
+        <v>92.61099999999999</v>
       </c>
       <c r="L51" s="72">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="72">
-        <v>92.611000000000004</v>
+        <v>92.61099999999999</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9510,10 +9510,10 @@
         <v>70</v>
       </c>
       <c r="K52" s="72">
-        <v>21.225000000000001</v>
+        <v>21.225000000000005</v>
       </c>
       <c r="L52" s="72">
-        <v>85.75200000000001</v>
+        <v>85.751999999999995</v>
       </c>
       <c r="M52" s="72">
         <v>6.859</v>
@@ -14253,13 +14253,13 @@
         <v>34.647999999999996</v>
       </c>
       <c r="L163" s="72">
-        <v>14.260999999999996</v>
+        <v>14.261000000000003</v>
       </c>
       <c r="M163" s="72">
         <v>114.26500000000001</v>
       </c>
       <c r="N163" s="72">
-        <v>48.908999999999992</v>
+        <v>48.908999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>31.646999999999998</v>
+        <v>31.647000000000006</v>
       </c>
       <c r="L164" s="72">
         <v>25.457999999999991</v>
@@ -14303,7 +14303,7 @@
         <v>23.451000000000001</v>
       </c>
       <c r="N164" s="72">
-        <v>57.10499999999999</v>
+        <v>57.104999999999997</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14590,16 +14590,16 @@
         <v>70</v>
       </c>
       <c r="K171" s="72">
-        <v>34.784000000000006</v>
+        <v>34.783999999999999</v>
       </c>
       <c r="L171" s="72">
-        <v>59.776999999999987</v>
+        <v>59.777000000000008</v>
       </c>
       <c r="M171" s="72">
         <v>43.528999999999996</v>
       </c>
       <c r="N171" s="72">
-        <v>94.560999999999993</v>
+        <v>94.561000000000007</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -14681,13 +14681,13 @@
         <v>15.618</v>
       </c>
       <c r="L173" s="72">
-        <v>41.136000000000003</v>
+        <v>41.135999999999996</v>
       </c>
       <c r="M173" s="72">
-        <v>19.172999999999998</v>
+        <v>19.173000000000002</v>
       </c>
       <c r="N173" s="72">
-        <v>56.754000000000005</v>
+        <v>56.753999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -14725,13 +14725,13 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="L174" s="72">
-        <v>33.219000000000015</v>
+        <v>33.219000000000001</v>
       </c>
       <c r="M174" s="72">
-        <v>23.535</v>
+        <v>23.535000000000004</v>
       </c>
       <c r="N174" s="72">
-        <v>35.423000000000016</v>
+        <v>35.423000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -14769,13 +14769,13 @@
         <v>1.6580000000000001</v>
       </c>
       <c r="L175" s="72">
-        <v>19.294</v>
+        <v>19.293999999999997</v>
       </c>
       <c r="M175" s="72">
         <v>16.129000000000001</v>
       </c>
       <c r="N175" s="72">
-        <v>20.952000000000002</v>
+        <v>20.951999999999998</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="M176" s="72">
-        <v>20.952000000000002</v>
+        <v>20.951999999999998</v>
       </c>
       <c r="N176" s="72">
         <v>0</v>
@@ -14889,13 +14889,13 @@
         <v>34.61</v>
       </c>
       <c r="L178" s="72">
-        <v>25.423000000000009</v>
+        <v>25.423000000000002</v>
       </c>
       <c r="M178" s="72">
         <v>2.6609999999999996</v>
       </c>
       <c r="N178" s="72">
-        <v>60.033000000000008</v>
+        <v>60.033000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -14933,13 +14933,13 @@
         <v>25.143999999999998</v>
       </c>
       <c r="L179" s="72">
-        <v>55.890000000000022</v>
+        <v>55.890000000000008</v>
       </c>
       <c r="M179" s="72">
         <v>4.1429999999999998</v>
       </c>
       <c r="N179" s="72">
-        <v>81.03400000000002</v>
+        <v>81.034000000000006</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -14974,16 +14974,16 @@
         <v>70</v>
       </c>
       <c r="K180" s="72">
-        <v>31.533999999999999</v>
+        <v>31.534000000000002</v>
       </c>
       <c r="L180" s="72">
-        <v>57.374000000000002</v>
+        <v>57.374000000000009</v>
       </c>
       <c r="M180" s="72">
-        <v>23.660000000000004</v>
+        <v>23.66</v>
       </c>
       <c r="N180" s="72">
-        <v>88.908000000000001</v>
+        <v>88.908000000000015</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -15018,10 +15018,10 @@
         <v>70</v>
       </c>
       <c r="K181" s="72">
-        <v>29.229000000000003</v>
+        <v>29.228999999999999</v>
       </c>
       <c r="L181" s="72">
-        <v>14.151999999999997</v>
+        <v>14.152000000000001</v>
       </c>
       <c r="M181" s="72">
         <v>74.756</v>
@@ -15062,10 +15062,10 @@
         <v>70</v>
       </c>
       <c r="K182" s="72">
-        <v>13.812999999999997</v>
+        <v>13.812999999999999</v>
       </c>
       <c r="L182" s="72">
-        <v>29.454000000000001</v>
+        <v>29.453999999999997</v>
       </c>
       <c r="M182" s="72">
         <v>13.927</v>
@@ -15273,13 +15273,13 @@
         <v>33.018999999999998</v>
       </c>
       <c r="L187" s="72">
-        <v>24.406999999999996</v>
+        <v>24.407000000000004</v>
       </c>
       <c r="M187" s="72">
         <v>2.6419999999999995</v>
       </c>
       <c r="N187" s="72">
-        <v>57.425999999999995</v>
+        <v>57.426000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -15314,10 +15314,10 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>23.824000000000005</v>
+        <v>23.823999999999998</v>
       </c>
       <c r="L188" s="72">
-        <v>53.320999999999991</v>
+        <v>53.320999999999998</v>
       </c>
       <c r="M188" s="72">
         <v>4.1050000000000004</v>
@@ -15361,13 +15361,13 @@
         <v>30.298000000000002</v>
       </c>
       <c r="L189" s="72">
-        <v>56.547999999999988</v>
+        <v>56.548000000000002</v>
       </c>
       <c r="M189" s="72">
         <v>20.597000000000001</v>
       </c>
       <c r="N189" s="72">
-        <v>86.845999999999989</v>
+        <v>86.846000000000004</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -19972,7 +19972,7 @@
         <v>95.144000000000005</v>
       </c>
       <c r="M297" s="72">
-        <v>33.336000000000006</v>
+        <v>33.335999999999999</v>
       </c>
       <c r="N297" s="72">
         <v>117.708</v>
@@ -20010,16 +20010,16 @@
         <v>70</v>
       </c>
       <c r="K298" s="72">
-        <v>50.186999999999998</v>
+        <v>50.187000000000005</v>
       </c>
       <c r="L298" s="72">
-        <v>13.399000000000001</v>
+        <v>13.399000000000008</v>
       </c>
       <c r="M298" s="72">
         <v>104.309</v>
       </c>
       <c r="N298" s="72">
-        <v>63.585999999999999</v>
+        <v>63.586000000000013</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -20057,13 +20057,13 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="L299" s="72">
-        <v>19.213000000000001</v>
+        <v>19.212999999999997</v>
       </c>
       <c r="M299" s="72">
         <v>44.373000000000005</v>
       </c>
       <c r="N299" s="72">
-        <v>21.51</v>
+        <v>21.509999999999998</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="M300" s="72">
-        <v>21.51</v>
+        <v>21.509999999999998</v>
       </c>
       <c r="N300" s="72">
         <v>0</v>
@@ -20174,16 +20174,16 @@
         <v>70</v>
       </c>
       <c r="K302" s="72">
-        <v>29.206000000000003</v>
+        <v>29.206</v>
       </c>
       <c r="L302" s="72">
-        <v>111.55299999999998</v>
+        <v>111.55300000000001</v>
       </c>
       <c r="M302" s="72">
         <v>7.0289999999999999</v>
       </c>
       <c r="N302" s="72">
-        <v>140.75899999999999</v>
+        <v>140.75900000000001</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -20262,13 +20262,13 @@
         <v>70</v>
       </c>
       <c r="K304" s="72">
-        <v>19.358000000000001</v>
+        <v>19.357999999999997</v>
       </c>
       <c r="L304" s="72">
         <v>65.869</v>
       </c>
       <c r="M304" s="72">
-        <v>112.43900000000001</v>
+        <v>112.43899999999999</v>
       </c>
       <c r="N304" s="72">
         <v>85.227000000000004</v>
@@ -20306,16 +20306,16 @@
         <v>70</v>
       </c>
       <c r="K305" s="72">
-        <v>30.534999999999997</v>
+        <v>30.535000000000004</v>
       </c>
       <c r="L305" s="72">
-        <v>12.190000000000005</v>
+        <v>12.189999999999991</v>
       </c>
       <c r="M305" s="72">
         <v>73.037000000000006</v>
       </c>
       <c r="N305" s="72">
-        <v>42.725000000000001</v>
+        <v>42.724999999999994</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20353,13 +20353,13 @@
         <v>2.0510000000000002</v>
       </c>
       <c r="L306" s="72">
-        <v>12.921999999999999</v>
+        <v>12.922000000000001</v>
       </c>
       <c r="M306" s="72">
-        <v>29.802999999999997</v>
+        <v>29.803000000000001</v>
       </c>
       <c r="N306" s="72">
-        <v>14.972999999999999</v>
+        <v>14.973000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="M307" s="72">
-        <v>14.972999999999999</v>
+        <v>14.973000000000001</v>
       </c>
       <c r="N307" s="72">
         <v>0</v>
@@ -20426,7 +20426,7 @@
         <v>70</v>
       </c>
       <c r="K308" s="72">
-        <v>84.770999999999987</v>
+        <v>84.771000000000001</v>
       </c>
       <c r="L308" s="72">
         <v>0</v>
@@ -20435,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="72">
-        <v>84.770999999999987</v>
+        <v>84.771000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -20473,13 +20473,13 @@
         <v>19.53</v>
       </c>
       <c r="L309" s="72">
-        <v>77.868000000000009</v>
+        <v>77.867999999999995</v>
       </c>
       <c r="M309" s="72">
         <v>6.9030000000000005</v>
       </c>
       <c r="N309" s="72">
-        <v>97.39800000000001</v>
+        <v>97.397999999999996</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -20514,10 +20514,10 @@
         <v>70</v>
       </c>
       <c r="K310" s="72">
-        <v>27.927</v>
+        <v>27.927000000000003</v>
       </c>
       <c r="L310" s="72">
-        <v>91.293000000000006</v>
+        <v>91.292999999999992</v>
       </c>
       <c r="M310" s="72">
         <v>6.1049999999999995</v>
@@ -20564,7 +20564,7 @@
         <v>63.136000000000003</v>
       </c>
       <c r="M311" s="72">
-        <v>56.08400000000001</v>
+        <v>56.083999999999996</v>
       </c>
       <c r="N311" s="72">
         <v>81.822000000000003</v>
@@ -20605,13 +20605,13 @@
         <v>27.563000000000002</v>
       </c>
       <c r="L312" s="72">
-        <v>11.926000000000002</v>
+        <v>11.925999999999995</v>
       </c>
       <c r="M312" s="72">
-        <v>69.895999999999987</v>
+        <v>69.896000000000001</v>
       </c>
       <c r="N312" s="72">
-        <v>39.489000000000004</v>
+        <v>39.488999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -20649,13 +20649,13 @@
         <v>1.9710000000000001</v>
       </c>
       <c r="L313" s="72">
-        <v>11.972</v>
+        <v>11.972000000000001</v>
       </c>
       <c r="M313" s="72">
         <v>27.517000000000003</v>
       </c>
       <c r="N313" s="72">
-        <v>13.943</v>
+        <v>13.943000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
@@ -20722,7 +20722,7 @@
         <v>70</v>
       </c>
       <c r="K315" s="72">
-        <v>79.241</v>
+        <v>79.240999999999985</v>
       </c>
       <c r="L315" s="72">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="N315" s="72">
-        <v>79.241</v>
+        <v>79.240999999999985</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -20813,13 +20813,13 @@
         <v>25.024000000000001</v>
       </c>
       <c r="L317" s="72">
-        <v>84.293000000000006</v>
+        <v>84.292999999999992</v>
       </c>
       <c r="M317" s="72">
         <v>6.0350000000000001</v>
       </c>
       <c r="N317" s="72">
-        <v>109.31700000000001</v>
+        <v>109.31699999999999</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -25253,13 +25253,13 @@
         <v>34.644999999999996</v>
       </c>
       <c r="L422" s="72">
-        <v>7.8079999999999998</v>
+        <v>7.8080000000000069</v>
       </c>
       <c r="M422" s="72">
-        <v>62.386000000000003</v>
+        <v>62.385999999999996</v>
       </c>
       <c r="N422" s="72">
-        <v>42.452999999999996</v>
+        <v>42.453000000000003</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
@@ -25294,7 +25294,7 @@
         <v>70</v>
       </c>
       <c r="K423" s="72">
-        <v>31.644999999999996</v>
+        <v>31.645000000000003</v>
       </c>
       <c r="L423" s="72">
         <v>22.037999999999997</v>
@@ -25303,7 +25303,7 @@
         <v>20.414999999999999</v>
       </c>
       <c r="N423" s="72">
-        <v>53.682999999999993</v>
+        <v>53.683</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -25341,13 +25341,13 @@
         <v>2.2759999999999998</v>
       </c>
       <c r="L424" s="72">
-        <v>30.880999999999997</v>
+        <v>30.881000000000004</v>
       </c>
       <c r="M424" s="72">
         <v>22.802</v>
       </c>
       <c r="N424" s="72">
-        <v>33.156999999999996</v>
+        <v>33.157000000000004</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -25546,10 +25546,10 @@
         <v>70</v>
       </c>
       <c r="K429" s="72">
-        <v>43.542000000000002</v>
+        <v>43.541999999999994</v>
       </c>
       <c r="L429" s="72">
-        <v>11.064999999999998</v>
+        <v>11.065000000000005</v>
       </c>
       <c r="M429" s="72">
         <v>42.228999999999999</v>
@@ -25593,13 +25593,13 @@
         <v>15.616</v>
       </c>
       <c r="L430" s="72">
-        <v>38.161000000000001</v>
+        <v>38.160999999999994</v>
       </c>
       <c r="M430" s="72">
         <v>16.445999999999998</v>
       </c>
       <c r="N430" s="72">
-        <v>53.777000000000001</v>
+        <v>53.776999999999994</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -25637,13 +25637,13 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="L431" s="72">
-        <v>31.397000000000013</v>
+        <v>31.396999999999998</v>
       </c>
       <c r="M431" s="72">
         <v>22.380000000000003</v>
       </c>
       <c r="N431" s="72">
-        <v>33.601000000000013</v>
+        <v>33.600999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
@@ -25684,7 +25684,7 @@
         <v>18.378999999999998</v>
       </c>
       <c r="M432" s="72">
-        <v>15.222000000000001</v>
+        <v>15.222</v>
       </c>
       <c r="N432" s="72">
         <v>20.036999999999999</v>
@@ -25798,10 +25798,10 @@
         <v>70</v>
       </c>
       <c r="K435" s="72">
-        <v>31.532</v>
+        <v>31.532000000000004</v>
       </c>
       <c r="L435" s="72">
-        <v>17.894000000000002</v>
+        <v>17.893999999999998</v>
       </c>
       <c r="M435" s="72">
         <v>7.25</v>
@@ -25886,13 +25886,13 @@
         <v>70</v>
       </c>
       <c r="K437" s="72">
-        <v>13.810999999999996</v>
+        <v>13.811</v>
       </c>
       <c r="L437" s="72">
-        <v>26.552000000000003</v>
+        <v>26.552</v>
       </c>
       <c r="M437" s="72">
-        <v>11.248999999999999</v>
+        <v>11.249000000000001</v>
       </c>
       <c r="N437" s="72">
         <v>40.363</v>
@@ -26094,10 +26094,10 @@
         <v>70</v>
       </c>
       <c r="K442" s="72">
-        <v>30.297000000000001</v>
+        <v>30.296999999999997</v>
       </c>
       <c r="L442" s="72">
-        <v>17.569999999999997</v>
+        <v>17.57</v>
       </c>
       <c r="M442" s="72">
         <v>6.2530000000000001</v>
@@ -29986,7 +29986,7 @@
         <v>70</v>
       </c>
       <c r="K534" s="72">
-        <v>26.193000000000001</v>
+        <v>26.192999999999998</v>
       </c>
       <c r="L534" s="72">
         <v>112.43499999999999</v>
@@ -30194,7 +30194,7 @@
         <v>70</v>
       </c>
       <c r="K539" s="72">
-        <v>43.279000000000003</v>
+        <v>43.278999999999996</v>
       </c>
       <c r="L539" s="72">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="N539" s="72">
-        <v>43.279000000000003</v>
+        <v>43.278999999999996</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30241,13 +30241,13 @@
         <v>89.49</v>
       </c>
       <c r="L540" s="72">
-        <v>38.243999999999986</v>
+        <v>38.244000000000014</v>
       </c>
       <c r="M540" s="72">
         <v>5.0350000000000001</v>
       </c>
       <c r="N540" s="72">
-        <v>127.73399999999998</v>
+        <v>127.73400000000001</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30285,13 +30285,13 @@
         <v>66.411000000000001</v>
       </c>
       <c r="L541" s="72">
-        <v>99.601999999999975</v>
+        <v>99.602000000000004</v>
       </c>
       <c r="M541" s="72">
         <v>28.132000000000001</v>
       </c>
       <c r="N541" s="72">
-        <v>166.01299999999998</v>
+        <v>166.01300000000001</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30332,7 +30332,7 @@
         <v>64.901000000000025</v>
       </c>
       <c r="M542" s="72">
-        <v>101.11200000000001</v>
+        <v>101.11199999999999</v>
       </c>
       <c r="N542" s="72">
         <v>148.82600000000002</v>
@@ -30370,16 +30370,16 @@
         <v>70</v>
       </c>
       <c r="K543" s="72">
-        <v>15</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="L543" s="72">
-        <v>124.84099999999998</v>
+        <v>124.84100000000001</v>
       </c>
       <c r="M543" s="72">
         <v>23.984999999999999</v>
       </c>
       <c r="N543" s="72">
-        <v>139.84099999999998</v>
+        <v>139.84100000000001</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30420,7 +30420,7 @@
         <v>41.844000000000008</v>
       </c>
       <c r="M544" s="72">
-        <v>97.997</v>
+        <v>97.997000000000014</v>
       </c>
       <c r="N544" s="72">
         <v>46.775000000000006</v>
@@ -30581,13 +30581,13 @@
         <v>35.486999999999995</v>
       </c>
       <c r="L548" s="72">
-        <v>96.936000000000007</v>
+        <v>96.936000000000035</v>
       </c>
       <c r="M548" s="72">
         <v>23.091000000000001</v>
       </c>
       <c r="N548" s="72">
-        <v>132.423</v>
+        <v>132.42300000000003</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30625,13 +30625,13 @@
         <v>68.673000000000002</v>
       </c>
       <c r="L549" s="72">
-        <v>34.592999999999989</v>
+        <v>34.593000000000004</v>
       </c>
       <c r="M549" s="72">
         <v>97.830000000000013</v>
       </c>
       <c r="N549" s="72">
-        <v>103.26599999999999</v>
+        <v>103.26600000000001</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.25">
@@ -30672,7 +30672,7 @@
         <v>79.840999999999994</v>
       </c>
       <c r="M550" s="72">
-        <v>23.425000000000001</v>
+        <v>23.424999999999997</v>
       </c>
       <c r="N550" s="72">
         <v>93.063999999999993</v>
@@ -30830,10 +30830,10 @@
         <v>70</v>
       </c>
       <c r="K554" s="72">
-        <v>81.504000000000005</v>
+        <v>81.503999999999991</v>
       </c>
       <c r="L554" s="72">
-        <v>35.399999999999991</v>
+        <v>35.400000000000006</v>
       </c>
       <c r="M554" s="72">
         <v>4.9710000000000001</v>
@@ -34561,13 +34561,13 @@
         <v>5.806</v>
       </c>
       <c r="L642" s="72">
-        <v>20.521999999999995</v>
+        <v>20.521999999999998</v>
       </c>
       <c r="M642" s="72">
         <v>49.201999999999998</v>
       </c>
       <c r="N642" s="72">
-        <v>26.327999999999996</v>
+        <v>26.327999999999999</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
@@ -34605,7 +34605,7 @@
         <v>0</v>
       </c>
       <c r="M643" s="72">
-        <v>26.327999999999996</v>
+        <v>26.327999999999999</v>
       </c>
       <c r="N643" s="72">
         <v>0</v>
@@ -34722,13 +34722,13 @@
         <v>70</v>
       </c>
       <c r="K646" s="72">
-        <v>93.426999999999992</v>
+        <v>93.427000000000007</v>
       </c>
       <c r="L646" s="72">
-        <v>126.434</v>
+        <v>126.43399999999998</v>
       </c>
       <c r="M646" s="72">
-        <v>26.997999999999998</v>
+        <v>26.998000000000001</v>
       </c>
       <c r="N646" s="72">
         <v>219.86099999999999</v>
@@ -34766,13 +34766,13 @@
         <v>70</v>
       </c>
       <c r="K647" s="72">
-        <v>50.352999999999994</v>
+        <v>50.353000000000002</v>
       </c>
       <c r="L647" s="72">
-        <v>57.769000000000005</v>
+        <v>57.768999999999998</v>
       </c>
       <c r="M647" s="72">
-        <v>162.09199999999998</v>
+        <v>162.09200000000001</v>
       </c>
       <c r="N647" s="72">
         <v>108.122</v>
@@ -34810,16 +34810,16 @@
         <v>70</v>
       </c>
       <c r="K648" s="72">
-        <v>27.086000000000002</v>
+        <v>27.085999999999999</v>
       </c>
       <c r="L648" s="72">
-        <v>99.338000000000008</v>
+        <v>99.33799999999998</v>
       </c>
       <c r="M648" s="72">
         <v>8.7839999999999989</v>
       </c>
       <c r="N648" s="72">
-        <v>126.42400000000001</v>
+        <v>126.42399999999998</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -34977,13 +34977,13 @@
         <v>83.165999999999997</v>
       </c>
       <c r="L652" s="72">
-        <v>34.667000000000016</v>
+        <v>34.667000000000002</v>
       </c>
       <c r="M652" s="72">
         <v>4.9969999999999999</v>
       </c>
       <c r="N652" s="72">
-        <v>117.83300000000001</v>
+        <v>117.833</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.25">
@@ -35018,16 +35018,16 @@
         <v>70</v>
       </c>
       <c r="K653" s="72">
-        <v>61.389999999999993</v>
+        <v>61.39</v>
       </c>
       <c r="L653" s="72">
-        <v>102.29900000000001</v>
+        <v>102.29900000000002</v>
       </c>
       <c r="M653" s="72">
         <v>15.533999999999999</v>
       </c>
       <c r="N653" s="72">
-        <v>163.68899999999999</v>
+        <v>163.68900000000002</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.25">
@@ -35062,16 +35062,16 @@
         <v>70</v>
       </c>
       <c r="K654" s="72">
-        <v>58.853999999999992</v>
+        <v>58.853999999999999</v>
       </c>
       <c r="L654" s="72">
-        <v>34.914999999999985</v>
+        <v>34.915000000000006</v>
       </c>
       <c r="M654" s="72">
         <v>128.774</v>
       </c>
       <c r="N654" s="72">
-        <v>93.768999999999977</v>
+        <v>93.769000000000005</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
@@ -35109,13 +35109,13 @@
         <v>12.102</v>
       </c>
       <c r="L655" s="72">
-        <v>85.240999999999971</v>
+        <v>85.241000000000014</v>
       </c>
       <c r="M655" s="72">
         <v>8.5280000000000005</v>
       </c>
       <c r="N655" s="72">
-        <v>97.342999999999975</v>
+        <v>97.343000000000018</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.25">
@@ -35153,13 +35153,13 @@
         <v>4.6909999999999998</v>
       </c>
       <c r="L656" s="72">
-        <v>28.483000000000001</v>
+        <v>28.482999999999993</v>
       </c>
       <c r="M656" s="72">
-        <v>68.86</v>
+        <v>68.859999999999985</v>
       </c>
       <c r="N656" s="72">
-        <v>33.173999999999999</v>
+        <v>33.173999999999992</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>33.173999999999999</v>
+        <v>33.173999999999992</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>70</v>
       </c>
       <c r="K658" s="72">
-        <v>37.993000000000002</v>
+        <v>37.992999999999995</v>
       </c>
       <c r="L658" s="72">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N658" s="72">
-        <v>37.993000000000002</v>
+        <v>37.992999999999995</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
@@ -35317,13 +35317,13 @@
         <v>56.747</v>
       </c>
       <c r="L660" s="72">
-        <v>98.074999999999974</v>
+        <v>98.075000000000031</v>
       </c>
       <c r="M660" s="72">
         <v>13.812999999999999</v>
       </c>
       <c r="N660" s="72">
-        <v>154.82199999999997</v>
+        <v>154.82200000000003</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
@@ -35358,13 +35358,13 @@
         <v>70</v>
       </c>
       <c r="K661" s="72">
-        <v>52.935000000000002</v>
+        <v>52.934999999999995</v>
       </c>
       <c r="L661" s="72">
-        <v>31.441999999999993</v>
+        <v>31.442</v>
       </c>
       <c r="M661" s="72">
-        <v>123.38000000000002</v>
+        <v>123.38000000000001</v>
       </c>
       <c r="N661" s="72">
         <v>84.376999999999995</v>
@@ -35402,10 +35402,10 @@
         <v>70</v>
       </c>
       <c r="K662" s="72">
-        <v>9.8529999999999998</v>
+        <v>9.8530000000000015</v>
       </c>
       <c r="L662" s="72">
-        <v>75.924999999999997</v>
+        <v>75.924999999999983</v>
       </c>
       <c r="M662" s="72">
         <v>8.4519999999999982</v>
@@ -35522,7 +35522,7 @@
         <v>70</v>
       </c>
       <c r="K665" s="72">
-        <v>37.242000000000004</v>
+        <v>37.241999999999997</v>
       </c>
       <c r="L665" s="72">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="N665" s="72">
-        <v>37.242000000000004</v>
+        <v>37.241999999999997</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
@@ -35566,16 +35566,16 @@
         <v>70</v>
       </c>
       <c r="K666" s="72">
-        <v>76.033000000000015</v>
+        <v>76.033000000000001</v>
       </c>
       <c r="L666" s="72">
-        <v>32.334000000000003</v>
+        <v>32.333999999999989</v>
       </c>
       <c r="M666" s="72">
         <v>4.9080000000000004</v>
       </c>
       <c r="N666" s="72">
-        <v>108.36700000000002</v>
+        <v>108.36699999999999</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
@@ -38913,13 +38913,13 @@
         <v>68.924000000000007</v>
       </c>
       <c r="L745" s="72">
-        <v>221.33900000000003</v>
+        <v>221.33899999999997</v>
       </c>
       <c r="M745" s="72">
         <v>88.781999999999996</v>
       </c>
       <c r="N745" s="72">
-        <v>290.26300000000003</v>
+        <v>290.26299999999998</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
@@ -38957,13 +38957,13 @@
         <v>164.06799999999998</v>
       </c>
       <c r="L746" s="72">
-        <v>92.738000000000056</v>
+        <v>92.737999999999943</v>
       </c>
       <c r="M746" s="72">
-        <v>197.52500000000003</v>
+        <v>197.52499999999998</v>
       </c>
       <c r="N746" s="72">
-        <v>256.80600000000004</v>
+        <v>256.80599999999993</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -38998,16 +38998,16 @@
         <v>70</v>
       </c>
       <c r="K747" s="72">
-        <v>37.981000000000002</v>
+        <v>37.980999999999995</v>
       </c>
       <c r="L747" s="72">
-        <v>210.19400000000005</v>
+        <v>210.19399999999999</v>
       </c>
       <c r="M747" s="72">
-        <v>46.611999999999995</v>
+        <v>46.612000000000002</v>
       </c>
       <c r="N747" s="72">
-        <v>248.17500000000004</v>
+        <v>248.17499999999998</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.25">
@@ -39042,10 +39042,10 @@
         <v>70</v>
       </c>
       <c r="K748" s="72">
-        <v>29.467999999999996</v>
+        <v>29.468000000000004</v>
       </c>
       <c r="L748" s="72">
-        <v>141.518</v>
+        <v>141.51799999999997</v>
       </c>
       <c r="M748" s="72">
         <v>106.65700000000001</v>
@@ -39089,13 +39089,13 @@
         <v>2.3179999999999996</v>
       </c>
       <c r="L749" s="72">
-        <v>80.382999999999996</v>
+        <v>80.38300000000001</v>
       </c>
       <c r="M749" s="72">
         <v>90.603000000000009</v>
       </c>
       <c r="N749" s="72">
-        <v>82.700999999999993</v>
+        <v>82.701000000000008</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.25">
@@ -39133,7 +39133,7 @@
         <v>0</v>
       </c>
       <c r="M750" s="72">
-        <v>82.700999999999993</v>
+        <v>82.701000000000008</v>
       </c>
       <c r="N750" s="72">
         <v>0</v>
@@ -39256,7 +39256,7 @@
         <v>78.682000000000002</v>
       </c>
       <c r="M753" s="72">
-        <v>19.187000000000005</v>
+        <v>19.186999999999998</v>
       </c>
       <c r="N753" s="72">
         <v>152.322</v>
@@ -39294,7 +39294,7 @@
         <v>70</v>
       </c>
       <c r="K754" s="72">
-        <v>37.779000000000003</v>
+        <v>37.778999999999996</v>
       </c>
       <c r="L754" s="72">
         <v>108.30200000000002</v>
@@ -39344,7 +39344,7 @@
         <v>51.007999999999996</v>
       </c>
       <c r="M755" s="72">
-        <v>95.072999999999979</v>
+        <v>95.072999999999993</v>
       </c>
       <c r="N755" s="72">
         <v>116.84899999999999</v>
@@ -39385,13 +39385,13 @@
         <v>14.901</v>
       </c>
       <c r="L756" s="72">
-        <v>72.931999999999988</v>
+        <v>72.932000000000002</v>
       </c>
       <c r="M756" s="72">
         <v>43.917000000000002</v>
       </c>
       <c r="N756" s="72">
-        <v>87.832999999999984</v>
+        <v>87.832999999999998</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.25">
@@ -39546,7 +39546,7 @@
         <v>70</v>
       </c>
       <c r="K760" s="72">
-        <v>46.917000000000002</v>
+        <v>46.916999999999994</v>
       </c>
       <c r="L760" s="72">
         <v>0</v>
@@ -39555,7 +39555,7 @@
         <v>0</v>
       </c>
       <c r="N760" s="72">
-        <v>46.917000000000002</v>
+        <v>46.916999999999994</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -39590,16 +39590,16 @@
         <v>70</v>
       </c>
       <c r="K761" s="72">
-        <v>45.008000000000003</v>
+        <v>45.007999999999996</v>
       </c>
       <c r="L761" s="72">
-        <v>46.440999999999995</v>
+        <v>46.440999999999988</v>
       </c>
       <c r="M761" s="72">
         <v>0.47599999999999998</v>
       </c>
       <c r="N761" s="72">
-        <v>91.448999999999998</v>
+        <v>91.448999999999984</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
@@ -39640,7 +39640,7 @@
         <v>65.128</v>
       </c>
       <c r="M762" s="72">
-        <v>26.321000000000002</v>
+        <v>26.320999999999998</v>
       </c>
       <c r="N762" s="72">
         <v>115.556</v>
@@ -39678,13 +39678,13 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>34.925000000000004</v>
+        <v>34.924999999999997</v>
       </c>
       <c r="L763" s="72">
-        <v>81.414999999999992</v>
+        <v>81.415000000000006</v>
       </c>
       <c r="M763" s="72">
-        <v>34.140999999999998</v>
+        <v>34.141000000000005</v>
       </c>
       <c r="N763" s="72">
         <v>116.34</v>
@@ -39725,13 +39725,13 @@
         <v>54.891999999999996</v>
       </c>
       <c r="L764" s="72">
-        <v>36.462000000000003</v>
+        <v>36.462000000000018</v>
       </c>
       <c r="M764" s="72">
-        <v>79.877999999999986</v>
+        <v>79.878000000000014</v>
       </c>
       <c r="N764" s="72">
-        <v>91.353999999999999</v>
+        <v>91.354000000000013</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.25">
@@ -39816,7 +39816,7 @@
         <v>42.885999999999996</v>
       </c>
       <c r="M766" s="72">
-        <v>23.066000000000003</v>
+        <v>23.065999999999999</v>
       </c>
       <c r="N766" s="72">
         <v>55.591999999999999</v>
@@ -39974,16 +39974,16 @@
         <v>70</v>
       </c>
       <c r="K770" s="72">
-        <v>39.279999999999994</v>
+        <v>39.28</v>
       </c>
       <c r="L770" s="72">
-        <v>42.221999999999987</v>
+        <v>42.221999999999994</v>
       </c>
       <c r="M770" s="72">
         <v>0.46</v>
       </c>
       <c r="N770" s="72">
-        <v>81.501999999999981</v>
+        <v>81.501999999999995</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -40018,16 +40018,16 @@
         <v>70</v>
       </c>
       <c r="K771" s="72">
-        <v>46.265999999999998</v>
+        <v>46.266000000000005</v>
       </c>
       <c r="L771" s="72">
-        <v>62.753999999999998</v>
+        <v>62.754000000000005</v>
       </c>
       <c r="M771" s="72">
-        <v>18.748000000000001</v>
+        <v>18.747999999999998</v>
       </c>
       <c r="N771" s="72">
-        <v>109.02</v>
+        <v>109.02000000000001</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.25">
@@ -45060,7 +45060,7 @@
         <v>308.79899999999998</v>
       </c>
       <c r="M889" s="72">
-        <v>108.41099999999999</v>
+        <v>108.411</v>
       </c>
       <c r="N889" s="72">
         <v>389.608</v>
@@ -45151,7 +45151,7 @@
         <v>49.528000000000006</v>
       </c>
       <c r="N891" s="72">
-        <v>342.65100000000001</v>
+        <v>342.65099999999995</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.25">
@@ -45192,7 +45192,7 @@
         <v>175.69799999999998</v>
       </c>
       <c r="M892" s="72">
-        <v>166.95300000000003</v>
+        <v>166.953</v>
       </c>
       <c r="N892" s="72">
         <v>214.80199999999996</v>
@@ -45444,7 +45444,7 @@
         <v>125.56399999999998</v>
       </c>
       <c r="M898" s="72">
-        <v>43.332000000000001</v>
+        <v>43.331999999999994</v>
       </c>
       <c r="N898" s="72">
         <v>168.97199999999998</v>
@@ -45485,13 +45485,13 @@
         <v>62.840999999999994</v>
       </c>
       <c r="L899" s="72">
-        <v>61.369</v>
+        <v>61.369000000000014</v>
       </c>
       <c r="M899" s="72">
-        <v>107.60299999999999</v>
+        <v>107.60299999999998</v>
       </c>
       <c r="N899" s="72">
-        <v>124.21</v>
+        <v>124.21000000000001</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
@@ -45532,7 +45532,7 @@
         <v>96.521999999999991</v>
       </c>
       <c r="M900" s="72">
-        <v>27.687999999999995</v>
+        <v>27.688000000000002</v>
       </c>
       <c r="N900" s="72">
         <v>122.333</v>
@@ -45573,13 +45573,13 @@
         <v>16.513999999999999</v>
       </c>
       <c r="L901" s="72">
-        <v>63.161999999999992</v>
+        <v>63.16200000000002</v>
       </c>
       <c r="M901" s="72">
-        <v>59.170999999999992</v>
+        <v>59.171000000000006</v>
       </c>
       <c r="N901" s="72">
-        <v>79.675999999999988</v>
+        <v>79.676000000000016</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
@@ -45617,13 +45617,13 @@
         <v>1.1150000000000002</v>
       </c>
       <c r="L902" s="72">
-        <v>39.773999999999994</v>
+        <v>39.774000000000001</v>
       </c>
       <c r="M902" s="72">
         <v>39.902000000000001</v>
       </c>
       <c r="N902" s="72">
-        <v>40.888999999999996</v>
+        <v>40.889000000000003</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
@@ -45781,13 +45781,13 @@
         <v>58.855000000000004</v>
       </c>
       <c r="L906" s="72">
-        <v>73.46099999999997</v>
+        <v>73.460999999999999</v>
       </c>
       <c r="M906" s="72">
         <v>14.227</v>
       </c>
       <c r="N906" s="72">
-        <v>132.31599999999997</v>
+        <v>132.316</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -45825,13 +45825,13 @@
         <v>37.591000000000001</v>
       </c>
       <c r="L907" s="72">
-        <v>98.585000000000036</v>
+        <v>98.58499999999998</v>
       </c>
       <c r="M907" s="72">
-        <v>33.730999999999995</v>
+        <v>33.731000000000002</v>
       </c>
       <c r="N907" s="72">
-        <v>136.17600000000004</v>
+        <v>136.17599999999999</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.25">
@@ -45866,13 +45866,13 @@
         <v>70</v>
       </c>
       <c r="K908" s="72">
-        <v>49.279000000000003</v>
+        <v>49.278999999999996</v>
       </c>
       <c r="L908" s="72">
-        <v>48.439999999999991</v>
+        <v>48.44</v>
       </c>
       <c r="M908" s="72">
-        <v>87.736000000000004</v>
+        <v>87.73599999999999</v>
       </c>
       <c r="N908" s="72">
         <v>97.718999999999994</v>
@@ -51157,13 +51157,13 @@
         <v>136.29499999999999</v>
       </c>
       <c r="L1032" s="72">
-        <v>175.22499999999994</v>
+        <v>175.22499999999999</v>
       </c>
       <c r="M1032" s="72">
-        <v>29.451999999999998</v>
+        <v>29.452000000000002</v>
       </c>
       <c r="N1032" s="72">
-        <v>311.51999999999992</v>
+        <v>311.52</v>
       </c>
     </row>
     <row r="1033" spans="1:14" x14ac:dyDescent="0.25">
@@ -51245,13 +51245,13 @@
         <v>103.46700000000001</v>
       </c>
       <c r="L1034" s="72">
-        <v>86.10499999999999</v>
+        <v>86.104999999999961</v>
       </c>
       <c r="M1034" s="72">
         <v>172.68299999999999</v>
       </c>
       <c r="N1034" s="72">
-        <v>189.572</v>
+        <v>189.57199999999997</v>
       </c>
     </row>
     <row r="1035" spans="1:14" x14ac:dyDescent="0.25">
@@ -51289,13 +51289,13 @@
         <v>101.45400000000001</v>
       </c>
       <c r="L1035" s="72">
-        <v>146.08399999999997</v>
+        <v>146.084</v>
       </c>
       <c r="M1035" s="72">
         <v>43.488</v>
       </c>
       <c r="N1035" s="72">
-        <v>247.53799999999998</v>
+        <v>247.53800000000001</v>
       </c>
     </row>
     <row r="1036" spans="1:14" x14ac:dyDescent="0.25">
@@ -51330,16 +51330,16 @@
         <v>70</v>
       </c>
       <c r="K1036" s="72">
-        <v>22.592999999999996</v>
+        <v>22.593000000000004</v>
       </c>
       <c r="L1036" s="72">
-        <v>151.53700000000003</v>
+        <v>151.53699999999998</v>
       </c>
       <c r="M1036" s="72">
-        <v>96.001000000000005</v>
+        <v>96.001000000000019</v>
       </c>
       <c r="N1036" s="72">
-        <v>174.13000000000002</v>
+        <v>174.13</v>
       </c>
     </row>
     <row r="1037" spans="1:14" x14ac:dyDescent="0.25">
@@ -51380,7 +51380,7 @@
         <v>76.855999999999995</v>
       </c>
       <c r="M1037" s="72">
-        <v>97.274000000000015</v>
+        <v>97.274000000000001</v>
       </c>
       <c r="N1037" s="72">
         <v>90.498999999999995</v>
@@ -51494,16 +51494,16 @@
         <v>70</v>
       </c>
       <c r="K1040" s="72">
-        <v>53.48</v>
+        <v>53.480000000000004</v>
       </c>
       <c r="L1040" s="72">
-        <v>41.669000000000032</v>
+        <v>41.668999999999997</v>
       </c>
       <c r="M1040" s="72">
         <v>3.8079999999999998</v>
       </c>
       <c r="N1040" s="72">
-        <v>95.149000000000029</v>
+        <v>95.149000000000001</v>
       </c>
     </row>
     <row r="1041" spans="1:14" x14ac:dyDescent="0.25">
@@ -51544,7 +51544,7 @@
         <v>73.999000000000009</v>
       </c>
       <c r="M1041" s="72">
-        <v>21.150000000000002</v>
+        <v>21.15</v>
       </c>
       <c r="N1041" s="72">
         <v>133.376</v>
@@ -51585,13 +51585,13 @@
         <v>43.096000000000004</v>
       </c>
       <c r="L1042" s="72">
-        <v>76.685000000000016</v>
+        <v>76.685000000000002</v>
       </c>
       <c r="M1042" s="72">
         <v>56.691000000000003</v>
       </c>
       <c r="N1042" s="72">
-        <v>119.78100000000002</v>
+        <v>119.78100000000001</v>
       </c>
     </row>
     <row r="1043" spans="1:14" x14ac:dyDescent="0.25">
@@ -51673,13 +51673,13 @@
         <v>41.116</v>
       </c>
       <c r="L1044" s="72">
-        <v>62.735999999999976</v>
+        <v>62.736000000000004</v>
       </c>
       <c r="M1044" s="72">
-        <v>28.517000000000003</v>
+        <v>28.516999999999999</v>
       </c>
       <c r="N1044" s="72">
-        <v>103.85199999999998</v>
+        <v>103.852</v>
       </c>
     </row>
     <row r="1045" spans="1:14" x14ac:dyDescent="0.25">
@@ -51714,7 +51714,7 @@
         <v>70</v>
       </c>
       <c r="K1045" s="72">
-        <v>8.2860000000000014</v>
+        <v>8.2859999999999996</v>
       </c>
       <c r="L1045" s="72">
         <v>57.492999999999995</v>
@@ -51761,13 +51761,13 @@
         <v>4.3769999999999998</v>
       </c>
       <c r="L1046" s="72">
-        <v>29.000000000000004</v>
+        <v>29.000000000000011</v>
       </c>
       <c r="M1046" s="72">
         <v>36.778999999999996</v>
       </c>
       <c r="N1046" s="72">
-        <v>33.377000000000002</v>
+        <v>33.37700000000001</v>
       </c>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.25">
@@ -51805,7 +51805,7 @@
         <v>0</v>
       </c>
       <c r="M1047" s="72">
-        <v>33.377000000000002</v>
+        <v>33.37700000000001</v>
       </c>
       <c r="N1047" s="72">
         <v>0</v>
@@ -51834,7 +51834,7 @@
         <v>70</v>
       </c>
       <c r="K1048" s="72">
-        <v>35.26100000000001</v>
+        <v>35.260999999999996</v>
       </c>
       <c r="L1048" s="72">
         <v>0</v>
@@ -51843,7 +51843,7 @@
         <v>0</v>
       </c>
       <c r="N1048" s="72">
-        <v>35.26100000000001</v>
+        <v>35.260999999999996</v>
       </c>
     </row>
     <row r="1049" spans="1:14" x14ac:dyDescent="0.25">
@@ -51881,13 +51881,13 @@
         <v>40.28</v>
       </c>
       <c r="L1049" s="72">
-        <v>32.171000000000006</v>
+        <v>32.170999999999992</v>
       </c>
       <c r="M1049" s="72">
         <v>3.09</v>
       </c>
       <c r="N1049" s="72">
-        <v>72.451000000000008</v>
+        <v>72.450999999999993</v>
       </c>
     </row>
     <row r="1050" spans="1:14" x14ac:dyDescent="0.25">
@@ -51925,13 +51925,13 @@
         <v>51.364000000000004</v>
       </c>
       <c r="L1050" s="72">
-        <v>59.095000000000027</v>
+        <v>59.094999999999999</v>
       </c>
       <c r="M1050" s="72">
         <v>13.356000000000002</v>
       </c>
       <c r="N1050" s="72">
-        <v>110.45900000000003</v>
+        <v>110.459</v>
       </c>
     </row>
     <row r="1051" spans="1:14" x14ac:dyDescent="0.25">
@@ -51969,13 +51969,13 @@
         <v>38.397999999999996</v>
       </c>
       <c r="L1051" s="72">
-        <v>61.964000000000013</v>
+        <v>61.963999999999999</v>
       </c>
       <c r="M1051" s="72">
         <v>48.494999999999997</v>
       </c>
       <c r="N1051" s="72">
-        <v>100.36200000000001</v>
+        <v>100.36199999999999</v>
       </c>
     </row>
     <row r="1052" spans="1:14" x14ac:dyDescent="0.25">
@@ -52013,13 +52013,13 @@
         <v>44.216999999999999</v>
       </c>
       <c r="L1052" s="72">
-        <v>32.303000000000011</v>
+        <v>32.302999999999997</v>
       </c>
       <c r="M1052" s="72">
         <v>68.058999999999997</v>
       </c>
       <c r="N1052" s="72">
-        <v>76.52000000000001</v>
+        <v>76.52</v>
       </c>
     </row>
     <row r="1053" spans="1:14" x14ac:dyDescent="0.25">
@@ -52218,7 +52218,7 @@
         <v>70</v>
       </c>
       <c r="K1057" s="72">
-        <v>33.472000000000001</v>
+        <v>33.471999999999994</v>
       </c>
       <c r="L1057" s="72">
         <v>0</v>
@@ -52227,7 +52227,7 @@
         <v>0</v>
       </c>
       <c r="N1057" s="72">
-        <v>33.472000000000001</v>
+        <v>33.471999999999994</v>
       </c>
     </row>
     <row r="1058" spans="1:14" x14ac:dyDescent="0.25">
@@ -52265,13 +52265,13 @@
         <v>37.650999999999996</v>
       </c>
       <c r="L1058" s="72">
-        <v>30.513000000000005</v>
+        <v>30.512999999999991</v>
       </c>
       <c r="M1058" s="72">
         <v>2.9589999999999996</v>
       </c>
       <c r="N1058" s="72">
-        <v>68.164000000000001</v>
+        <v>68.163999999999987</v>
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
@@ -57298,10 +57298,10 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>127.40099999999998</v>
+        <v>127.40100000000001</v>
       </c>
       <c r="L1176" s="72">
-        <v>186.36700000000005</v>
+        <v>186.36700000000002</v>
       </c>
       <c r="M1176" s="72">
         <v>36.091999999999999</v>
@@ -57342,16 +57342,16 @@
         <v>70</v>
       </c>
       <c r="K1177" s="72">
-        <v>72.02600000000001</v>
+        <v>72.025999999999996</v>
       </c>
       <c r="L1177" s="72">
-        <v>169.83999999999997</v>
+        <v>169.84000000000003</v>
       </c>
       <c r="M1177" s="72">
         <v>143.928</v>
       </c>
       <c r="N1177" s="72">
-        <v>241.86599999999999</v>
+        <v>241.86600000000001</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57389,13 +57389,13 @@
         <v>66.128</v>
       </c>
       <c r="L1178" s="72">
-        <v>57.856000000000009</v>
+        <v>57.855999999999995</v>
       </c>
       <c r="M1178" s="72">
-        <v>184.01</v>
+        <v>184.01000000000002</v>
       </c>
       <c r="N1178" s="72">
-        <v>123.98400000000001</v>
+        <v>123.98399999999999</v>
       </c>
     </row>
     <row r="1179" spans="1:14" x14ac:dyDescent="0.25">
@@ -57430,7 +57430,7 @@
         <v>70</v>
       </c>
       <c r="K1179" s="72">
-        <v>148.60199999999998</v>
+        <v>148.602</v>
       </c>
       <c r="L1179" s="72">
         <v>72.818000000000012</v>
@@ -57439,7 +57439,7 @@
         <v>51.165999999999997</v>
       </c>
       <c r="N1179" s="72">
-        <v>221.42</v>
+        <v>221.42000000000002</v>
       </c>
     </row>
     <row r="1180" spans="1:14" x14ac:dyDescent="0.25">
@@ -57474,13 +57474,13 @@
         <v>70</v>
       </c>
       <c r="K1180" s="72">
-        <v>55.274999999999999</v>
+        <v>55.275000000000006</v>
       </c>
       <c r="L1180" s="72">
         <v>155.36199999999999</v>
       </c>
       <c r="M1180" s="72">
-        <v>66.057999999999993</v>
+        <v>66.058000000000007</v>
       </c>
       <c r="N1180" s="72">
         <v>210.637</v>
@@ -57524,7 +57524,7 @@
         <v>94.637</v>
       </c>
       <c r="M1181" s="72">
-        <v>116</v>
+        <v>116.00000000000001</v>
       </c>
       <c r="N1181" s="72">
         <v>109.779</v>
@@ -57594,7 +57594,7 @@
         <v>70</v>
       </c>
       <c r="K1183" s="72">
-        <v>46.427</v>
+        <v>46.427000000000007</v>
       </c>
       <c r="L1183" s="72">
         <v>0</v>
@@ -57603,7 +57603,7 @@
         <v>0</v>
       </c>
       <c r="N1183" s="72">
-        <v>46.427</v>
+        <v>46.427000000000007</v>
       </c>
     </row>
     <row r="1184" spans="1:14" x14ac:dyDescent="0.25">
@@ -57641,13 +57641,13 @@
         <v>52.683999999999997</v>
       </c>
       <c r="L1184" s="72">
-        <v>42.426999999999992</v>
+        <v>42.427000000000021</v>
       </c>
       <c r="M1184" s="72">
         <v>4</v>
       </c>
       <c r="N1184" s="72">
-        <v>95.11099999999999</v>
+        <v>95.111000000000018</v>
       </c>
     </row>
     <row r="1185" spans="1:14" x14ac:dyDescent="0.25">
@@ -57685,13 +57685,13 @@
         <v>65.269000000000005</v>
       </c>
       <c r="L1185" s="72">
-        <v>79.572000000000003</v>
+        <v>79.571999999999974</v>
       </c>
       <c r="M1185" s="72">
-        <v>15.539000000000001</v>
+        <v>15.538999999999998</v>
       </c>
       <c r="N1185" s="72">
-        <v>144.84100000000001</v>
+        <v>144.84099999999998</v>
       </c>
     </row>
     <row r="1186" spans="1:14" x14ac:dyDescent="0.25">
@@ -57770,16 +57770,16 @@
         <v>70</v>
       </c>
       <c r="K1187" s="72">
-        <v>38.871000000000002</v>
+        <v>38.871000000000009</v>
       </c>
       <c r="L1187" s="72">
-        <v>24.461000000000006</v>
+        <v>24.461000000000013</v>
       </c>
       <c r="M1187" s="72">
         <v>85.063000000000017</v>
       </c>
       <c r="N1187" s="72">
-        <v>63.332000000000008</v>
+        <v>63.332000000000022</v>
       </c>
     </row>
     <row r="1188" spans="1:14" x14ac:dyDescent="0.25">
@@ -57817,13 +57817,13 @@
         <v>57.533999999999999</v>
       </c>
       <c r="L1188" s="72">
-        <v>27.655999999999999</v>
+        <v>27.656000000000027</v>
       </c>
       <c r="M1188" s="72">
-        <v>35.676000000000002</v>
+        <v>35.675999999999995</v>
       </c>
       <c r="N1188" s="72">
-        <v>85.19</v>
+        <v>85.190000000000026</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57858,10 +57858,10 @@
         <v>70</v>
       </c>
       <c r="K1189" s="72">
-        <v>18.768999999999998</v>
+        <v>18.769000000000002</v>
       </c>
       <c r="L1189" s="72">
-        <v>57.388000000000012</v>
+        <v>57.388000000000005</v>
       </c>
       <c r="M1189" s="72">
         <v>27.802</v>
@@ -58022,10 +58022,10 @@
         <v>70</v>
       </c>
       <c r="K1193" s="72">
-        <v>41.841000000000008</v>
+        <v>41.841000000000001</v>
       </c>
       <c r="L1193" s="72">
-        <v>34.488</v>
+        <v>34.488000000000007</v>
       </c>
       <c r="M1193" s="72">
         <v>3.25</v>
@@ -58069,13 +58069,13 @@
         <v>43.132000000000005</v>
       </c>
       <c r="L1194" s="72">
-        <v>63.814999999999998</v>
+        <v>63.814999999999984</v>
       </c>
       <c r="M1194" s="72">
-        <v>12.513999999999999</v>
+        <v>12.514000000000003</v>
       </c>
       <c r="N1194" s="72">
-        <v>106.947</v>
+        <v>106.94699999999999</v>
       </c>
     </row>
     <row r="1195" spans="1:14" x14ac:dyDescent="0.25">
@@ -58110,10 +58110,10 @@
         <v>70</v>
       </c>
       <c r="K1195" s="72">
-        <v>38.510000000000005</v>
+        <v>38.51</v>
       </c>
       <c r="L1195" s="72">
-        <v>51.326999999999984</v>
+        <v>51.326999999999991</v>
       </c>
       <c r="M1195" s="72">
         <v>55.62</v>
@@ -58157,13 +58157,13 @@
         <v>34.340000000000003</v>
       </c>
       <c r="L1196" s="72">
-        <v>19.506</v>
+        <v>19.505999999999993</v>
       </c>
       <c r="M1196" s="72">
-        <v>70.330999999999989</v>
+        <v>70.331000000000003</v>
       </c>
       <c r="N1196" s="72">
-        <v>53.846000000000004</v>
+        <v>53.845999999999997</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
@@ -58362,7 +58362,7 @@
         <v>70</v>
       </c>
       <c r="K1201" s="72">
-        <v>36.131</v>
+        <v>36.131000000000007</v>
       </c>
       <c r="L1201" s="72">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="N1201" s="72">
-        <v>36.131</v>
+        <v>36.131000000000007</v>
       </c>
     </row>
     <row r="1202" spans="1:14" x14ac:dyDescent="0.25">
@@ -58406,10 +58406,10 @@
         <v>70</v>
       </c>
       <c r="K1202" s="72">
-        <v>39.492999999999995</v>
+        <v>39.493000000000009</v>
       </c>
       <c r="L1202" s="72">
-        <v>33.02000000000001</v>
+        <v>33.019999999999996</v>
       </c>
       <c r="M1202" s="72">
         <v>3.1109999999999998</v>
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000006</v>
+        <v>258.13924999999989</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.61461726190476207</v>
+        <v>0.61461726190476162</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999992</v>
+        <v>296.44324999999986</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476168</v>
+        <v>0.70581726190476157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999908</v>
+        <v>76.063999999999965</v>
       </c>
       <c r="H11" s="72">
         <v>420</v>
       </c>
       <c r="I11" s="76">
-        <v>0.18110476190476169</v>
+        <v>0.18110476190476182</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.22424999999976</v>
+        <v>359.22424999999981</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.8552958333333327</v>
+        <v>0.85529583333333292</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.0042499999999</v>
+        <v>119.00425000000001</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28334345238095215</v>
+        <v>0.28334345238095243</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66453,13 +66453,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999991</v>
+        <v>40.9</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571419</v>
+        <v>0.5842857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378</v>
+        <v>50.377999999999986</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.23989523809523811</v>
+        <v>0.23989523809523802</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66511,13 +66511,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>103.20675</v>
+        <v>103.20675000000001</v>
       </c>
       <c r="H20" s="72">
         <v>210</v>
       </c>
       <c r="I20" s="76">
-        <v>0.49146071428571431</v>
+        <v>0.49146071428571436</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -66540,13 +66540,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>80.989750000000015</v>
+        <v>80.989750000000043</v>
       </c>
       <c r="H21" s="72">
         <v>140</v>
       </c>
       <c r="I21" s="76">
-        <v>0.57849821428571435</v>
+        <v>0.57849821428571457</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000023</v>
+        <v>61.135750000000016</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761916</v>
+        <v>0.2911226190476191</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000004</v>
+        <v>43.853500000000011</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.2088261904761905</v>
+        <v>0.20882619047619053</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -66801,13 +66801,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>178.53649999999982</v>
+        <v>178.53649999999993</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.85017380952380861</v>
+        <v>0.85017380952380917</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -66830,13 +66830,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>126.28975000000004</v>
+        <v>126.28975000000001</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.60137976190476206</v>
+        <v>0.60137976190476194</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>91.625750000000039</v>
+        <v>91.625750000000025</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.65446964285714315</v>
+        <v>0.65446964285714304</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>550.76724999999988</v>
+        <v>550.76724999999976</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.87423373015872996</v>
+        <v>0.87423373015872974</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66946,13 +66946,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>193.94874999999979</v>
+        <v>193.94874999999985</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.3078551587301584</v>
+        <v>0.30785515873015851</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -66975,13 +66975,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>85.914250000000038</v>
+        <v>85.914250000000024</v>
       </c>
       <c r="H36" s="72">
         <v>140</v>
       </c>
       <c r="I36" s="76">
-        <v>0.61367321428571453</v>
+        <v>0.61367321428571442</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -67004,13 +67004,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>120.77800000000002</v>
+        <v>120.77799999999999</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.57513333333333339</v>
+        <v>0.57513333333333327</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -67091,13 +67091,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>43.967249999999993</v>
+        <v>43.96725</v>
       </c>
       <c r="H40" s="72">
         <v>140</v>
       </c>
       <c r="I40" s="76">
-        <v>0.31405178571428566</v>
+        <v>0.31405178571428571</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -67120,13 +67120,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>63.39374999999999</v>
+        <v>63.393749999999997</v>
       </c>
       <c r="H41" s="72">
         <v>210</v>
       </c>
       <c r="I41" s="76">
-        <v>0.30187499999999995</v>
+        <v>0.301875</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313250000000018</v>
+        <v>38.313250000000011</v>
       </c>
       <c r="H45" s="72">
         <v>140</v>
       </c>
       <c r="I45" s="76">
-        <v>0.27366607142857158</v>
+        <v>0.27366607142857152</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67265,13 +67265,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>386.54474999999991</v>
+        <v>386.54475000000014</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>0.92034464285714268</v>
+        <v>0.92034464285714312</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>260.70424999999983</v>
+        <v>260.70424999999994</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.62072440476190438</v>
+        <v>0.6207244047619046</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>98.955000000000027</v>
+        <v>98.954999999999998</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
       </c>
       <c r="I48" s="76">
-        <v>0.47121428571428586</v>
+        <v>0.4712142857142857</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>188.78400000000011</v>
+        <v>188.78399999999999</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.89897142857142909</v>
+        <v>0.89897142857142853</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>287.11599999999987</v>
+        <v>287.11599999999999</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.68360952380952356</v>
+        <v>0.68360952380952378</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>401.59749999999985</v>
+        <v>401.59749999999963</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.95618452380952346</v>
+        <v>0.9561845238095229</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>331.49799999999976</v>
+        <v>331.49799999999988</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.5261873015873012</v>
+        <v>0.52618730158730143</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67555,13 +67555,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>128.22175000000004</v>
+        <v>128.22174999999996</v>
       </c>
       <c r="H56" s="72">
         <v>210</v>
       </c>
       <c r="I56" s="76">
-        <v>0.61057976190476215</v>
+        <v>0.61057976190476171</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -67584,13 +67584,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>166.96600000000009</v>
+        <v>166.96599999999987</v>
       </c>
       <c r="H57" s="72">
         <v>210</v>
       </c>
       <c r="I57" s="76">
-        <v>0.79507619047619094</v>
+        <v>0.79507619047618983</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.13050000000007</v>
+        <v>126.13050000000001</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142886</v>
+        <v>0.60062142857142864</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.264000000000038</v>
+        <v>79.263999999999982</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.37744761904761925</v>
+        <v>0.37744761904761898</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>153.20824999999996</v>
+        <v>153.20824999999988</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.72956309523809504</v>
+        <v>0.72956309523809471</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67874,13 +67874,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>110.01475000000003</v>
+        <v>110.01474999999994</v>
       </c>
       <c r="H67" s="72">
         <v>210</v>
       </c>
       <c r="I67" s="76">
-        <v>0.52387976190476204</v>
+        <v>0.5238797619047616</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -67961,7 +67961,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.00174999999987</v>
+        <v>234.0017499999999</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
@@ -67990,13 +67990,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>152.06024999999991</v>
+        <v>152.06024999999985</v>
       </c>
       <c r="H71" s="72">
         <v>420</v>
       </c>
       <c r="I71" s="76">
-        <v>0.3620482142857141</v>
+        <v>0.36204821428571393</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999997</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523808</v>
+        <v>0.26989523809523813</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000015</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.2594178571428572</v>
+        <v>0.25941785714285714</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25125000000008</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142859</v>
+        <v>0.80119642857142892</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000014</v>
+        <v>40.551999999999992</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476197</v>
+        <v>0.19310476190476186</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S049/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S049/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2576,7 +2576,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>22.721893273620111</v>
+        <v>22.721893273620108</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2616,7 +2616,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.30573774243307605</v>
+        <v>0.305737742433076</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.96378214285714336</v>
+        <v>0.96378214285714303</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2657,7 +2657,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.5672571428571427</v>
+        <v>2.5672571428571422</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8244,7 +8244,7 @@
         <v>78.221000000000004</v>
       </c>
       <c r="M22" s="72">
-        <v>25.524000000000001</v>
+        <v>25.523999999999997</v>
       </c>
       <c r="N22" s="72">
         <v>93.725000000000009</v>
@@ -8490,10 +8490,10 @@
         <v>70</v>
       </c>
       <c r="K28" s="72">
-        <v>71.646000000000015</v>
+        <v>71.646000000000001</v>
       </c>
       <c r="L28" s="72">
-        <v>44.35899999999998</v>
+        <v>44.358999999999995</v>
       </c>
       <c r="M28" s="72">
         <v>187.32400000000001</v>
@@ -8537,13 +8537,13 @@
         <v>111.626</v>
       </c>
       <c r="L29" s="72">
-        <v>80.215000000000003</v>
+        <v>80.215000000000032</v>
       </c>
       <c r="M29" s="72">
-        <v>35.790000000000006</v>
+        <v>35.789999999999992</v>
       </c>
       <c r="N29" s="72">
-        <v>191.84100000000001</v>
+        <v>191.84100000000004</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8581,13 +8581,13 @@
         <v>11.325000000000001</v>
       </c>
       <c r="L30" s="72">
-        <v>150.42700000000002</v>
+        <v>150.42700000000005</v>
       </c>
       <c r="M30" s="72">
         <v>41.414000000000001</v>
       </c>
       <c r="N30" s="72">
-        <v>161.75200000000001</v>
+        <v>161.75200000000004</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
         <v>70</v>
       </c>
       <c r="K33" s="72">
-        <v>96.491</v>
+        <v>96.491000000000014</v>
       </c>
       <c r="L33" s="72">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="72">
-        <v>96.491</v>
+        <v>96.491000000000014</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8745,13 +8745,13 @@
         <v>22.307000000000002</v>
       </c>
       <c r="L34" s="72">
-        <v>89.365000000000009</v>
+        <v>89.364999999999995</v>
       </c>
       <c r="M34" s="72">
         <v>7.1260000000000003</v>
       </c>
       <c r="N34" s="72">
-        <v>111.67200000000001</v>
+        <v>111.672</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8786,16 +8786,16 @@
         <v>70</v>
       </c>
       <c r="K35" s="72">
-        <v>30.023000000000003</v>
+        <v>30.023</v>
       </c>
       <c r="L35" s="72">
-        <v>105.36700000000002</v>
+        <v>105.36699999999999</v>
       </c>
       <c r="M35" s="72">
         <v>6.3049999999999997</v>
       </c>
       <c r="N35" s="72">
-        <v>135.39000000000001</v>
+        <v>135.38999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8830,10 +8830,10 @@
         <v>70</v>
       </c>
       <c r="K36" s="72">
-        <v>89.72999999999999</v>
+        <v>89.73</v>
       </c>
       <c r="L36" s="72">
-        <v>124.506</v>
+        <v>124.50599999999999</v>
       </c>
       <c r="M36" s="72">
         <v>10.884</v>
@@ -8874,16 +8874,16 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>86.081000000000017</v>
+        <v>86.080999999999989</v>
       </c>
       <c r="L37" s="72">
-        <v>68.585999999999956</v>
+        <v>68.586000000000013</v>
       </c>
       <c r="M37" s="72">
         <v>145.65</v>
       </c>
       <c r="N37" s="72">
-        <v>154.66699999999997</v>
+        <v>154.667</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8918,13 +8918,13 @@
         <v>70</v>
       </c>
       <c r="K38" s="72">
-        <v>56.895000000000003</v>
+        <v>56.89500000000001</v>
       </c>
       <c r="L38" s="72">
         <v>139.04299999999998</v>
       </c>
       <c r="M38" s="72">
-        <v>15.624000000000001</v>
+        <v>15.623999999999999</v>
       </c>
       <c r="N38" s="72">
         <v>195.93799999999999</v>
@@ -8968,7 +8968,7 @@
         <v>159.76400000000001</v>
       </c>
       <c r="M39" s="72">
-        <v>36.173999999999999</v>
+        <v>36.173999999999992</v>
       </c>
       <c r="N39" s="72">
         <v>170.79300000000001</v>
@@ -9009,13 +9009,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L40" s="72">
-        <v>131.92899999999997</v>
+        <v>131.92900000000003</v>
       </c>
       <c r="M40" s="72">
         <v>38.863999999999997</v>
       </c>
       <c r="N40" s="72">
-        <v>144.70599999999999</v>
+        <v>144.70600000000002</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="72">
-        <v>144.70599999999999</v>
+        <v>144.70600000000002</v>
       </c>
       <c r="N41" s="72">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>70</v>
       </c>
       <c r="K42" s="72">
-        <v>93.521000000000001</v>
+        <v>93.521000000000015</v>
       </c>
       <c r="L42" s="72">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="72">
-        <v>93.521000000000001</v>
+        <v>93.521000000000015</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -9126,7 +9126,7 @@
         <v>70</v>
       </c>
       <c r="K43" s="72">
-        <v>21.500999999999998</v>
+        <v>21.501000000000001</v>
       </c>
       <c r="L43" s="72">
         <v>86.596000000000004</v>
@@ -9173,13 +9173,13 @@
         <v>28.821000000000005</v>
       </c>
       <c r="L44" s="72">
-        <v>101.97400000000002</v>
+        <v>101.97399999999999</v>
       </c>
       <c r="M44" s="72">
         <v>6.1229999999999993</v>
       </c>
       <c r="N44" s="72">
-        <v>130.79500000000002</v>
+        <v>130.79499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9214,16 +9214,16 @@
         <v>70</v>
       </c>
       <c r="K45" s="72">
-        <v>71.081000000000003</v>
+        <v>71.080999999999989</v>
       </c>
       <c r="L45" s="72">
-        <v>120.22800000000002</v>
+        <v>120.22800000000001</v>
       </c>
       <c r="M45" s="72">
         <v>10.567</v>
       </c>
       <c r="N45" s="72">
-        <v>191.30900000000003</v>
+        <v>191.309</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -9258,16 +9258,16 @@
         <v>70</v>
       </c>
       <c r="K46" s="72">
-        <v>62.927999999999997</v>
+        <v>62.928000000000011</v>
       </c>
       <c r="L46" s="72">
-        <v>52.773000000000025</v>
+        <v>52.772999999999982</v>
       </c>
       <c r="M46" s="72">
         <v>138.536</v>
       </c>
       <c r="N46" s="72">
-        <v>115.70100000000002</v>
+        <v>115.70099999999999</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9302,10 +9302,10 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>48.559000000000005</v>
+        <v>48.559000000000012</v>
       </c>
       <c r="L47" s="72">
-        <v>100.953</v>
+        <v>100.95299999999999</v>
       </c>
       <c r="M47" s="72">
         <v>14.748000000000001</v>
@@ -9349,13 +9349,13 @@
         <v>10.722000000000001</v>
       </c>
       <c r="L48" s="72">
-        <v>122.87199999999999</v>
+        <v>122.87200000000001</v>
       </c>
       <c r="M48" s="72">
-        <v>26.64</v>
+        <v>26.639999999999997</v>
       </c>
       <c r="N48" s="72">
-        <v>133.59399999999999</v>
+        <v>133.59400000000002</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9466,7 +9466,7 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>92.61099999999999</v>
+        <v>92.611000000000004</v>
       </c>
       <c r="L51" s="72">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="72">
-        <v>92.61099999999999</v>
+        <v>92.611000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9510,10 +9510,10 @@
         <v>70</v>
       </c>
       <c r="K52" s="72">
-        <v>21.225000000000005</v>
+        <v>21.225000000000001</v>
       </c>
       <c r="L52" s="72">
-        <v>85.751999999999995</v>
+        <v>85.75200000000001</v>
       </c>
       <c r="M52" s="72">
         <v>6.859</v>
@@ -9554,16 +9554,16 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>28.258000000000003</v>
+        <v>28.257999999999996</v>
       </c>
       <c r="L53" s="72">
-        <v>100.91299999999998</v>
+        <v>100.91300000000003</v>
       </c>
       <c r="M53" s="72">
         <v>6.0640000000000001</v>
       </c>
       <c r="N53" s="72">
-        <v>129.17099999999999</v>
+        <v>129.17100000000002</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9604,7 +9604,7 @@
         <v>118.73099999999998</v>
       </c>
       <c r="M54" s="72">
-        <v>10.44</v>
+        <v>10.440000000000001</v>
       </c>
       <c r="N54" s="72">
         <v>185.51999999999998</v>
@@ -14001,13 +14001,13 @@
         <v>2.165</v>
       </c>
       <c r="L157" s="72">
-        <v>17.702000000000005</v>
+        <v>17.702000000000002</v>
       </c>
       <c r="M157" s="72">
         <v>11.559000000000001</v>
       </c>
       <c r="N157" s="72">
-        <v>19.867000000000004</v>
+        <v>19.867000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="72">
-        <v>19.867000000000004</v>
+        <v>19.867000000000001</v>
       </c>
       <c r="N158" s="72">
         <v>0</v>
@@ -14294,16 +14294,16 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>31.647000000000006</v>
+        <v>31.646999999999998</v>
       </c>
       <c r="L164" s="72">
-        <v>25.457999999999991</v>
+        <v>25.458000000000006</v>
       </c>
       <c r="M164" s="72">
         <v>23.451000000000001</v>
       </c>
       <c r="N164" s="72">
-        <v>57.104999999999997</v>
+        <v>57.105000000000004</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14344,7 +14344,7 @@
         <v>33</v>
       </c>
       <c r="M165" s="72">
-        <v>24.105</v>
+        <v>24.105000000000004</v>
       </c>
       <c r="N165" s="72">
         <v>35.277000000000001</v>
@@ -14458,7 +14458,7 @@
         <v>70</v>
       </c>
       <c r="K168" s="72">
-        <v>34.32</v>
+        <v>34.319999999999993</v>
       </c>
       <c r="L168" s="72">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="72">
-        <v>34.32</v>
+        <v>34.319999999999993</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -14549,13 +14549,13 @@
         <v>32.084000000000003</v>
       </c>
       <c r="L170" s="72">
-        <v>71.221999999999994</v>
+        <v>71.222000000000008</v>
       </c>
       <c r="M170" s="72">
         <v>4.2249999999999996</v>
       </c>
       <c r="N170" s="72">
-        <v>103.306</v>
+        <v>103.30600000000001</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14590,10 +14590,10 @@
         <v>70</v>
       </c>
       <c r="K171" s="72">
-        <v>34.783999999999999</v>
+        <v>34.784000000000006</v>
       </c>
       <c r="L171" s="72">
-        <v>59.777000000000008</v>
+        <v>59.777000000000001</v>
       </c>
       <c r="M171" s="72">
         <v>43.528999999999996</v>
@@ -14637,13 +14637,13 @@
         <v>43.545000000000002</v>
       </c>
       <c r="L172" s="72">
-        <v>16.763999999999996</v>
+        <v>16.764000000000003</v>
       </c>
       <c r="M172" s="72">
         <v>77.796999999999997</v>
       </c>
       <c r="N172" s="72">
-        <v>60.308999999999997</v>
+        <v>60.309000000000005</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -14678,7 +14678,7 @@
         <v>70</v>
       </c>
       <c r="K173" s="72">
-        <v>15.618</v>
+        <v>15.617999999999999</v>
       </c>
       <c r="L173" s="72">
         <v>41.135999999999996</v>
@@ -14687,7 +14687,7 @@
         <v>19.173000000000002</v>
       </c>
       <c r="N173" s="72">
-        <v>56.753999999999998</v>
+        <v>56.753999999999991</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -14725,13 +14725,13 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="L174" s="72">
-        <v>33.219000000000001</v>
+        <v>33.218999999999987</v>
       </c>
       <c r="M174" s="72">
-        <v>23.535000000000004</v>
+        <v>23.535</v>
       </c>
       <c r="N174" s="72">
-        <v>35.423000000000002</v>
+        <v>35.422999999999988</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -14886,10 +14886,10 @@
         <v>70</v>
       </c>
       <c r="K178" s="72">
-        <v>34.61</v>
+        <v>34.610000000000007</v>
       </c>
       <c r="L178" s="72">
-        <v>25.423000000000002</v>
+        <v>25.422999999999995</v>
       </c>
       <c r="M178" s="72">
         <v>2.6609999999999996</v>
@@ -14930,10 +14930,10 @@
         <v>70</v>
       </c>
       <c r="K179" s="72">
-        <v>25.143999999999998</v>
+        <v>25.144000000000002</v>
       </c>
       <c r="L179" s="72">
-        <v>55.890000000000008</v>
+        <v>55.89</v>
       </c>
       <c r="M179" s="72">
         <v>4.1429999999999998</v>
@@ -14974,10 +14974,10 @@
         <v>70</v>
       </c>
       <c r="K180" s="72">
-        <v>31.534000000000002</v>
+        <v>31.533999999999999</v>
       </c>
       <c r="L180" s="72">
-        <v>57.374000000000009</v>
+        <v>57.374000000000017</v>
       </c>
       <c r="M180" s="72">
         <v>23.66</v>
@@ -15021,13 +15021,13 @@
         <v>29.228999999999999</v>
       </c>
       <c r="L181" s="72">
-        <v>14.152000000000001</v>
+        <v>14.151999999999994</v>
       </c>
       <c r="M181" s="72">
-        <v>74.756</v>
+        <v>74.756000000000014</v>
       </c>
       <c r="N181" s="72">
-        <v>43.381</v>
+        <v>43.380999999999993</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -15068,7 +15068,7 @@
         <v>29.453999999999997</v>
       </c>
       <c r="M182" s="72">
-        <v>13.927</v>
+        <v>13.926999999999998</v>
       </c>
       <c r="N182" s="72">
         <v>43.266999999999996</v>
@@ -15109,13 +15109,13 @@
         <v>2.1530000000000005</v>
       </c>
       <c r="L183" s="72">
-        <v>25.304000000000002</v>
+        <v>25.303999999999995</v>
       </c>
       <c r="M183" s="72">
         <v>17.963000000000001</v>
       </c>
       <c r="N183" s="72">
-        <v>27.457000000000001</v>
+        <v>27.456999999999997</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -15270,10 +15270,10 @@
         <v>70</v>
       </c>
       <c r="K187" s="72">
-        <v>33.018999999999998</v>
+        <v>33.019000000000005</v>
       </c>
       <c r="L187" s="72">
-        <v>24.407000000000004</v>
+        <v>24.406999999999996</v>
       </c>
       <c r="M187" s="72">
         <v>2.6419999999999995</v>
@@ -15314,16 +15314,16 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>23.823999999999998</v>
+        <v>23.824000000000002</v>
       </c>
       <c r="L188" s="72">
-        <v>53.320999999999998</v>
+        <v>53.321000000000012</v>
       </c>
       <c r="M188" s="72">
         <v>4.1050000000000004</v>
       </c>
       <c r="N188" s="72">
-        <v>77.144999999999996</v>
+        <v>77.14500000000001</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -20010,16 +20010,16 @@
         <v>70</v>
       </c>
       <c r="K298" s="72">
-        <v>50.187000000000005</v>
+        <v>50.186999999999998</v>
       </c>
       <c r="L298" s="72">
-        <v>13.399000000000008</v>
+        <v>13.399000000000001</v>
       </c>
       <c r="M298" s="72">
         <v>104.309</v>
       </c>
       <c r="N298" s="72">
-        <v>63.586000000000013</v>
+        <v>63.585999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -20057,13 +20057,13 @@
         <v>2.2970000000000002</v>
       </c>
       <c r="L299" s="72">
-        <v>19.212999999999997</v>
+        <v>19.213000000000001</v>
       </c>
       <c r="M299" s="72">
-        <v>44.373000000000005</v>
+        <v>44.372999999999998</v>
       </c>
       <c r="N299" s="72">
-        <v>21.509999999999998</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="M300" s="72">
-        <v>21.509999999999998</v>
+        <v>21.51</v>
       </c>
       <c r="N300" s="72">
         <v>0</v>
@@ -20130,7 +20130,7 @@
         <v>70</v>
       </c>
       <c r="K301" s="72">
-        <v>118.58200000000001</v>
+        <v>118.58200000000002</v>
       </c>
       <c r="L301" s="72">
         <v>0</v>
@@ -20139,7 +20139,7 @@
         <v>0</v>
       </c>
       <c r="N301" s="72">
-        <v>118.58200000000001</v>
+        <v>118.58200000000002</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -20174,7 +20174,7 @@
         <v>70</v>
       </c>
       <c r="K302" s="72">
-        <v>29.206</v>
+        <v>29.206000000000003</v>
       </c>
       <c r="L302" s="72">
         <v>111.55300000000001</v>
@@ -20221,13 +20221,13 @@
         <v>43.766000000000005</v>
       </c>
       <c r="L303" s="72">
-        <v>134.54199999999997</v>
+        <v>134.54200000000003</v>
       </c>
       <c r="M303" s="72">
         <v>6.2170000000000005</v>
       </c>
       <c r="N303" s="72">
-        <v>178.30799999999999</v>
+        <v>178.30800000000005</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -20262,13 +20262,13 @@
         <v>70</v>
       </c>
       <c r="K304" s="72">
-        <v>19.357999999999997</v>
+        <v>19.358000000000001</v>
       </c>
       <c r="L304" s="72">
         <v>65.869</v>
       </c>
       <c r="M304" s="72">
-        <v>112.43899999999999</v>
+        <v>112.43900000000002</v>
       </c>
       <c r="N304" s="72">
         <v>85.227000000000004</v>
@@ -20306,16 +20306,16 @@
         <v>70</v>
       </c>
       <c r="K305" s="72">
-        <v>30.535000000000004</v>
+        <v>30.535</v>
       </c>
       <c r="L305" s="72">
-        <v>12.189999999999991</v>
+        <v>12.190000000000001</v>
       </c>
       <c r="M305" s="72">
         <v>73.037000000000006</v>
       </c>
       <c r="N305" s="72">
-        <v>42.724999999999994</v>
+        <v>42.725000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20426,7 +20426,7 @@
         <v>70</v>
       </c>
       <c r="K308" s="72">
-        <v>84.771000000000001</v>
+        <v>84.770999999999987</v>
       </c>
       <c r="L308" s="72">
         <v>0</v>
@@ -20435,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="72">
-        <v>84.771000000000001</v>
+        <v>84.770999999999987</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -20470,7 +20470,7 @@
         <v>70</v>
       </c>
       <c r="K309" s="72">
-        <v>19.53</v>
+        <v>19.529999999999998</v>
       </c>
       <c r="L309" s="72">
         <v>77.867999999999995</v>
@@ -20514,7 +20514,7 @@
         <v>70</v>
       </c>
       <c r="K310" s="72">
-        <v>27.927000000000003</v>
+        <v>27.927000000000007</v>
       </c>
       <c r="L310" s="72">
         <v>91.292999999999992</v>
@@ -20564,7 +20564,7 @@
         <v>63.136000000000003</v>
       </c>
       <c r="M311" s="72">
-        <v>56.083999999999996</v>
+        <v>56.084000000000003</v>
       </c>
       <c r="N311" s="72">
         <v>81.822000000000003</v>
@@ -20605,13 +20605,13 @@
         <v>27.563000000000002</v>
       </c>
       <c r="L312" s="72">
-        <v>11.925999999999995</v>
+        <v>11.926000000000002</v>
       </c>
       <c r="M312" s="72">
-        <v>69.896000000000001</v>
+        <v>69.896000000000015</v>
       </c>
       <c r="N312" s="72">
-        <v>39.488999999999997</v>
+        <v>39.489000000000004</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -20722,7 +20722,7 @@
         <v>70</v>
       </c>
       <c r="K315" s="72">
-        <v>79.240999999999985</v>
+        <v>79.241000000000014</v>
       </c>
       <c r="L315" s="72">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="N315" s="72">
-        <v>79.240999999999985</v>
+        <v>79.241000000000014</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -20810,16 +20810,16 @@
         <v>70</v>
       </c>
       <c r="K317" s="72">
-        <v>25.024000000000001</v>
+        <v>25.024000000000004</v>
       </c>
       <c r="L317" s="72">
-        <v>84.292999999999992</v>
+        <v>84.293000000000006</v>
       </c>
       <c r="M317" s="72">
         <v>6.0350000000000001</v>
       </c>
       <c r="N317" s="72">
-        <v>109.31699999999999</v>
+        <v>109.31700000000001</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -25089,13 +25089,13 @@
         <v>2.165</v>
       </c>
       <c r="L418" s="72">
-        <v>15.367000000000004</v>
+        <v>15.367000000000001</v>
       </c>
       <c r="M418" s="72">
         <v>9.8000000000000007</v>
       </c>
       <c r="N418" s="72">
-        <v>17.532000000000004</v>
+        <v>17.532</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="M419" s="72">
-        <v>17.532000000000004</v>
+        <v>17.532</v>
       </c>
       <c r="N419" s="72">
         <v>0</v>
@@ -25253,13 +25253,13 @@
         <v>34.644999999999996</v>
       </c>
       <c r="L422" s="72">
-        <v>7.8080000000000069</v>
+        <v>7.8079999999999998</v>
       </c>
       <c r="M422" s="72">
         <v>62.385999999999996</v>
       </c>
       <c r="N422" s="72">
-        <v>42.453000000000003</v>
+        <v>42.452999999999996</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
@@ -25294,7 +25294,7 @@
         <v>70</v>
       </c>
       <c r="K423" s="72">
-        <v>31.645000000000003</v>
+        <v>31.644999999999996</v>
       </c>
       <c r="L423" s="72">
         <v>22.037999999999997</v>
@@ -25303,7 +25303,7 @@
         <v>20.414999999999999</v>
       </c>
       <c r="N423" s="72">
-        <v>53.683</v>
+        <v>53.682999999999993</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -25341,13 +25341,13 @@
         <v>2.2759999999999998</v>
       </c>
       <c r="L424" s="72">
-        <v>30.881000000000004</v>
+        <v>30.880999999999997</v>
       </c>
       <c r="M424" s="72">
         <v>22.802</v>
       </c>
       <c r="N424" s="72">
-        <v>33.157000000000004</v>
+        <v>33.156999999999996</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -25388,7 +25388,7 @@
         <v>18.503</v>
       </c>
       <c r="M425" s="72">
-        <v>14.654</v>
+        <v>14.654000000000002</v>
       </c>
       <c r="N425" s="72">
         <v>20.231999999999999</v>
@@ -25505,13 +25505,13 @@
         <v>34.783000000000001</v>
       </c>
       <c r="L428" s="72">
-        <v>18.511000000000003</v>
+        <v>18.51100000000001</v>
       </c>
       <c r="M428" s="72">
         <v>13.573</v>
       </c>
       <c r="N428" s="72">
-        <v>53.294000000000004</v>
+        <v>53.294000000000011</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
@@ -25546,10 +25546,10 @@
         <v>70</v>
       </c>
       <c r="K429" s="72">
-        <v>43.541999999999994</v>
+        <v>43.542000000000002</v>
       </c>
       <c r="L429" s="72">
-        <v>11.065000000000005</v>
+        <v>11.064999999999998</v>
       </c>
       <c r="M429" s="72">
         <v>42.228999999999999</v>
@@ -25596,7 +25596,7 @@
         <v>38.160999999999994</v>
       </c>
       <c r="M430" s="72">
-        <v>16.445999999999998</v>
+        <v>16.446000000000002</v>
       </c>
       <c r="N430" s="72">
         <v>53.776999999999994</v>
@@ -25754,7 +25754,7 @@
         <v>70</v>
       </c>
       <c r="K434" s="72">
-        <v>25.143999999999998</v>
+        <v>25.144000000000002</v>
       </c>
       <c r="L434" s="72">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="72">
-        <v>25.143999999999998</v>
+        <v>25.144000000000002</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -25798,10 +25798,10 @@
         <v>70</v>
       </c>
       <c r="K435" s="72">
-        <v>31.532000000000004</v>
+        <v>31.532</v>
       </c>
       <c r="L435" s="72">
-        <v>17.893999999999998</v>
+        <v>17.894000000000002</v>
       </c>
       <c r="M435" s="72">
         <v>7.25</v>
@@ -25892,7 +25892,7 @@
         <v>26.552</v>
       </c>
       <c r="M437" s="72">
-        <v>11.249000000000001</v>
+        <v>11.248999999999999</v>
       </c>
       <c r="N437" s="72">
         <v>40.363</v>
@@ -26094,7 +26094,7 @@
         <v>70</v>
       </c>
       <c r="K442" s="72">
-        <v>30.296999999999997</v>
+        <v>30.297000000000004</v>
       </c>
       <c r="L442" s="72">
         <v>17.57</v>
@@ -26103,7 +26103,7 @@
         <v>6.2530000000000001</v>
       </c>
       <c r="N442" s="72">
-        <v>47.866999999999997</v>
+        <v>47.867000000000004</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
@@ -29989,13 +29989,13 @@
         <v>26.192999999999998</v>
       </c>
       <c r="L534" s="72">
-        <v>112.43499999999999</v>
+        <v>112.43500000000002</v>
       </c>
       <c r="M534" s="72">
-        <v>62.209000000000003</v>
+        <v>62.208999999999996</v>
       </c>
       <c r="N534" s="72">
-        <v>138.62799999999999</v>
+        <v>138.62800000000001</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
@@ -30033,13 +30033,13 @@
         <v>65.442000000000007</v>
       </c>
       <c r="L535" s="72">
-        <v>16.562999999999988</v>
+        <v>16.563000000000002</v>
       </c>
       <c r="M535" s="72">
         <v>122.065</v>
       </c>
       <c r="N535" s="72">
-        <v>82.004999999999995</v>
+        <v>82.00500000000001</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
@@ -30194,7 +30194,7 @@
         <v>70</v>
       </c>
       <c r="K539" s="72">
-        <v>43.278999999999996</v>
+        <v>43.279000000000011</v>
       </c>
       <c r="L539" s="72">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="N539" s="72">
-        <v>43.278999999999996</v>
+        <v>43.279000000000011</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30238,10 +30238,10 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>89.49</v>
+        <v>89.490000000000009</v>
       </c>
       <c r="L540" s="72">
-        <v>38.244000000000014</v>
+        <v>38.244</v>
       </c>
       <c r="M540" s="72">
         <v>5.0350000000000001</v>
@@ -30288,7 +30288,7 @@
         <v>99.602000000000004</v>
       </c>
       <c r="M541" s="72">
-        <v>28.132000000000001</v>
+        <v>28.131999999999998</v>
       </c>
       <c r="N541" s="72">
         <v>166.01300000000001</v>
@@ -30370,13 +30370,13 @@
         <v>70</v>
       </c>
       <c r="K543" s="72">
-        <v>14.999999999999998</v>
+        <v>15</v>
       </c>
       <c r="L543" s="72">
         <v>124.84100000000001</v>
       </c>
       <c r="M543" s="72">
-        <v>23.984999999999999</v>
+        <v>23.985000000000003</v>
       </c>
       <c r="N543" s="72">
         <v>139.84100000000001</v>
@@ -30537,13 +30537,13 @@
         <v>83.966000000000008</v>
       </c>
       <c r="L547" s="72">
-        <v>36.060999999999993</v>
+        <v>36.060999999999979</v>
       </c>
       <c r="M547" s="72">
         <v>5.0210000000000008</v>
       </c>
       <c r="N547" s="72">
-        <v>120.027</v>
+        <v>120.02699999999999</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -30578,16 +30578,16 @@
         <v>70</v>
       </c>
       <c r="K548" s="72">
-        <v>35.486999999999995</v>
+        <v>35.487000000000002</v>
       </c>
       <c r="L548" s="72">
-        <v>96.936000000000035</v>
+        <v>96.936000000000007</v>
       </c>
       <c r="M548" s="72">
         <v>23.091000000000001</v>
       </c>
       <c r="N548" s="72">
-        <v>132.42300000000003</v>
+        <v>132.423</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30628,7 +30628,7 @@
         <v>34.593000000000004</v>
       </c>
       <c r="M549" s="72">
-        <v>97.830000000000013</v>
+        <v>97.83</v>
       </c>
       <c r="N549" s="72">
         <v>103.26600000000001</v>
@@ -30666,16 +30666,16 @@
         <v>70</v>
       </c>
       <c r="K550" s="72">
-        <v>13.223000000000001</v>
+        <v>13.222999999999999</v>
       </c>
       <c r="L550" s="72">
-        <v>79.840999999999994</v>
+        <v>79.841000000000022</v>
       </c>
       <c r="M550" s="72">
-        <v>23.424999999999997</v>
+        <v>23.425000000000001</v>
       </c>
       <c r="N550" s="72">
-        <v>93.063999999999993</v>
+        <v>93.064000000000021</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.25">
@@ -30713,13 +30713,13 @@
         <v>4.75</v>
       </c>
       <c r="L551" s="72">
-        <v>27.636000000000003</v>
+        <v>27.635999999999996</v>
       </c>
       <c r="M551" s="72">
         <v>65.427999999999997</v>
       </c>
       <c r="N551" s="72">
-        <v>32.386000000000003</v>
+        <v>32.385999999999996</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.25">
@@ -30833,13 +30833,13 @@
         <v>81.503999999999991</v>
       </c>
       <c r="L554" s="72">
-        <v>35.400000000000006</v>
+        <v>35.40000000000002</v>
       </c>
       <c r="M554" s="72">
         <v>4.9710000000000001</v>
       </c>
       <c r="N554" s="72">
-        <v>116.904</v>
+        <v>116.90400000000001</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.25">
@@ -34722,16 +34722,16 @@
         <v>70</v>
       </c>
       <c r="K646" s="72">
-        <v>93.427000000000007</v>
+        <v>93.426999999999992</v>
       </c>
       <c r="L646" s="72">
-        <v>126.43399999999998</v>
+        <v>126.43400000000005</v>
       </c>
       <c r="M646" s="72">
         <v>26.998000000000001</v>
       </c>
       <c r="N646" s="72">
-        <v>219.86099999999999</v>
+        <v>219.86100000000005</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
@@ -34772,7 +34772,7 @@
         <v>57.768999999999998</v>
       </c>
       <c r="M647" s="72">
-        <v>162.09200000000001</v>
+        <v>162.09200000000004</v>
       </c>
       <c r="N647" s="72">
         <v>108.122</v>
@@ -34810,16 +34810,16 @@
         <v>70</v>
       </c>
       <c r="K648" s="72">
-        <v>27.085999999999999</v>
+        <v>27.086000000000002</v>
       </c>
       <c r="L648" s="72">
-        <v>99.33799999999998</v>
+        <v>99.338000000000022</v>
       </c>
       <c r="M648" s="72">
         <v>8.7839999999999989</v>
       </c>
       <c r="N648" s="72">
-        <v>126.42399999999998</v>
+        <v>126.42400000000002</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -35018,16 +35018,16 @@
         <v>70</v>
       </c>
       <c r="K653" s="72">
-        <v>61.39</v>
+        <v>61.389999999999993</v>
       </c>
       <c r="L653" s="72">
-        <v>102.29900000000002</v>
+        <v>102.29899999999998</v>
       </c>
       <c r="M653" s="72">
         <v>15.533999999999999</v>
       </c>
       <c r="N653" s="72">
-        <v>163.68900000000002</v>
+        <v>163.68899999999996</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.25">
@@ -35109,13 +35109,13 @@
         <v>12.102</v>
       </c>
       <c r="L655" s="72">
-        <v>85.241000000000014</v>
+        <v>85.241</v>
       </c>
       <c r="M655" s="72">
         <v>8.5280000000000005</v>
       </c>
       <c r="N655" s="72">
-        <v>97.343000000000018</v>
+        <v>97.343000000000004</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.25">
@@ -35153,13 +35153,13 @@
         <v>4.6909999999999998</v>
       </c>
       <c r="L656" s="72">
-        <v>28.482999999999993</v>
+        <v>28.483000000000001</v>
       </c>
       <c r="M656" s="72">
-        <v>68.859999999999985</v>
+        <v>68.860000000000014</v>
       </c>
       <c r="N656" s="72">
-        <v>33.173999999999992</v>
+        <v>33.173999999999999</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>33.173999999999992</v>
+        <v>33.173999999999999</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35317,13 +35317,13 @@
         <v>56.747</v>
       </c>
       <c r="L660" s="72">
-        <v>98.075000000000031</v>
+        <v>98.075000000000003</v>
       </c>
       <c r="M660" s="72">
         <v>13.812999999999999</v>
       </c>
       <c r="N660" s="72">
-        <v>154.82200000000003</v>
+        <v>154.822</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
@@ -35358,16 +35358,16 @@
         <v>70</v>
       </c>
       <c r="K661" s="72">
-        <v>52.934999999999995</v>
+        <v>52.935000000000002</v>
       </c>
       <c r="L661" s="72">
-        <v>31.442</v>
+        <v>31.442000000000007</v>
       </c>
       <c r="M661" s="72">
-        <v>123.38000000000001</v>
+        <v>123.38</v>
       </c>
       <c r="N661" s="72">
-        <v>84.376999999999995</v>
+        <v>84.37700000000001</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -35402,16 +35402,16 @@
         <v>70</v>
       </c>
       <c r="K662" s="72">
-        <v>9.8530000000000015</v>
+        <v>9.8529999999999998</v>
       </c>
       <c r="L662" s="72">
-        <v>75.924999999999983</v>
+        <v>75.925000000000011</v>
       </c>
       <c r="M662" s="72">
         <v>8.4519999999999982</v>
       </c>
       <c r="N662" s="72">
-        <v>85.777999999999992</v>
+        <v>85.778000000000006</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
         <v>70</v>
       </c>
       <c r="K665" s="72">
-        <v>37.241999999999997</v>
+        <v>37.242000000000004</v>
       </c>
       <c r="L665" s="72">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="N665" s="72">
-        <v>37.241999999999997</v>
+        <v>37.242000000000004</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
@@ -35569,13 +35569,13 @@
         <v>76.033000000000001</v>
       </c>
       <c r="L666" s="72">
-        <v>32.333999999999989</v>
+        <v>32.334000000000017</v>
       </c>
       <c r="M666" s="72">
         <v>4.9080000000000004</v>
       </c>
       <c r="N666" s="72">
-        <v>108.36699999999999</v>
+        <v>108.36700000000002</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
@@ -38910,13 +38910,13 @@
         <v>70</v>
       </c>
       <c r="K745" s="72">
-        <v>68.924000000000007</v>
+        <v>68.923999999999992</v>
       </c>
       <c r="L745" s="72">
-        <v>221.33899999999997</v>
+        <v>221.339</v>
       </c>
       <c r="M745" s="72">
-        <v>88.781999999999996</v>
+        <v>88.782000000000011</v>
       </c>
       <c r="N745" s="72">
         <v>290.26299999999998</v>
@@ -38957,13 +38957,13 @@
         <v>164.06799999999998</v>
       </c>
       <c r="L746" s="72">
-        <v>92.737999999999943</v>
+        <v>92.738</v>
       </c>
       <c r="M746" s="72">
-        <v>197.52499999999998</v>
+        <v>197.52500000000003</v>
       </c>
       <c r="N746" s="72">
-        <v>256.80599999999993</v>
+        <v>256.80599999999998</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -39001,13 +39001,13 @@
         <v>37.980999999999995</v>
       </c>
       <c r="L747" s="72">
-        <v>210.19399999999999</v>
+        <v>210.19400000000002</v>
       </c>
       <c r="M747" s="72">
         <v>46.612000000000002</v>
       </c>
       <c r="N747" s="72">
-        <v>248.17499999999998</v>
+        <v>248.17500000000001</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.25">
@@ -39042,13 +39042,13 @@
         <v>70</v>
       </c>
       <c r="K748" s="72">
-        <v>29.468000000000004</v>
+        <v>29.468</v>
       </c>
       <c r="L748" s="72">
-        <v>141.51799999999997</v>
+        <v>141.518</v>
       </c>
       <c r="M748" s="72">
-        <v>106.65700000000001</v>
+        <v>106.657</v>
       </c>
       <c r="N748" s="72">
         <v>170.98599999999999</v>
@@ -39089,13 +39089,13 @@
         <v>2.3179999999999996</v>
       </c>
       <c r="L749" s="72">
-        <v>80.38300000000001</v>
+        <v>80.382999999999996</v>
       </c>
       <c r="M749" s="72">
-        <v>90.603000000000009</v>
+        <v>90.602999999999994</v>
       </c>
       <c r="N749" s="72">
-        <v>82.701000000000008</v>
+        <v>82.700999999999993</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.25">
@@ -39133,7 +39133,7 @@
         <v>0</v>
       </c>
       <c r="M750" s="72">
-        <v>82.701000000000008</v>
+        <v>82.700999999999993</v>
       </c>
       <c r="N750" s="72">
         <v>0</v>
@@ -39162,7 +39162,7 @@
         <v>70</v>
       </c>
       <c r="K751" s="72">
-        <v>51.031000000000006</v>
+        <v>51.030999999999999</v>
       </c>
       <c r="L751" s="72">
         <v>0</v>
@@ -39171,7 +39171,7 @@
         <v>0</v>
       </c>
       <c r="N751" s="72">
-        <v>51.031000000000006</v>
+        <v>51.030999999999999</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.25">
@@ -39206,10 +39206,10 @@
         <v>70</v>
       </c>
       <c r="K752" s="72">
-        <v>47.408000000000001</v>
+        <v>47.407999999999994</v>
       </c>
       <c r="L752" s="72">
-        <v>50.460999999999999</v>
+        <v>50.461000000000006</v>
       </c>
       <c r="M752" s="72">
         <v>0.57000000000000006</v>
@@ -39250,13 +39250,13 @@
         <v>70</v>
       </c>
       <c r="K753" s="72">
-        <v>73.64</v>
+        <v>73.640000000000015</v>
       </c>
       <c r="L753" s="72">
-        <v>78.682000000000002</v>
+        <v>78.681999999999988</v>
       </c>
       <c r="M753" s="72">
-        <v>19.186999999999998</v>
+        <v>19.187000000000001</v>
       </c>
       <c r="N753" s="72">
         <v>152.322</v>
@@ -39297,13 +39297,13 @@
         <v>37.778999999999996</v>
       </c>
       <c r="L754" s="72">
-        <v>108.30200000000002</v>
+        <v>108.30199999999999</v>
       </c>
       <c r="M754" s="72">
         <v>44.019999999999996</v>
       </c>
       <c r="N754" s="72">
-        <v>146.08100000000002</v>
+        <v>146.08099999999999</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.25">
@@ -39338,16 +39338,16 @@
         <v>70</v>
       </c>
       <c r="K755" s="72">
-        <v>65.840999999999994</v>
+        <v>65.841000000000008</v>
       </c>
       <c r="L755" s="72">
-        <v>51.007999999999996</v>
+        <v>51.00800000000001</v>
       </c>
       <c r="M755" s="72">
-        <v>95.072999999999993</v>
+        <v>95.073000000000008</v>
       </c>
       <c r="N755" s="72">
-        <v>116.84899999999999</v>
+        <v>116.84900000000002</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.25">
@@ -39479,7 +39479,7 @@
         <v>38.468999999999994</v>
       </c>
       <c r="N758" s="72">
-        <v>36.758000000000003</v>
+        <v>36.757999999999996</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.25">
@@ -39517,7 +39517,7 @@
         <v>0</v>
       </c>
       <c r="M759" s="72">
-        <v>36.758000000000003</v>
+        <v>36.757999999999996</v>
       </c>
       <c r="N759" s="72">
         <v>0</v>
@@ -39546,7 +39546,7 @@
         <v>70</v>
       </c>
       <c r="K760" s="72">
-        <v>46.916999999999994</v>
+        <v>46.917000000000002</v>
       </c>
       <c r="L760" s="72">
         <v>0</v>
@@ -39555,7 +39555,7 @@
         <v>0</v>
       </c>
       <c r="N760" s="72">
-        <v>46.916999999999994</v>
+        <v>46.917000000000002</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
@@ -39590,16 +39590,16 @@
         <v>70</v>
       </c>
       <c r="K761" s="72">
-        <v>45.007999999999996</v>
+        <v>45.00800000000001</v>
       </c>
       <c r="L761" s="72">
-        <v>46.440999999999988</v>
+        <v>46.441000000000003</v>
       </c>
       <c r="M761" s="72">
         <v>0.47599999999999998</v>
       </c>
       <c r="N761" s="72">
-        <v>91.448999999999984</v>
+        <v>91.449000000000012</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
@@ -39637,13 +39637,13 @@
         <v>50.427999999999997</v>
       </c>
       <c r="L762" s="72">
-        <v>65.128</v>
+        <v>65.127999999999986</v>
       </c>
       <c r="M762" s="72">
-        <v>26.320999999999998</v>
+        <v>26.321000000000005</v>
       </c>
       <c r="N762" s="72">
-        <v>115.556</v>
+        <v>115.55599999999998</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.25">
@@ -39684,7 +39684,7 @@
         <v>81.415000000000006</v>
       </c>
       <c r="M763" s="72">
-        <v>34.141000000000005</v>
+        <v>34.140999999999998</v>
       </c>
       <c r="N763" s="72">
         <v>116.34</v>
@@ -39725,13 +39725,13 @@
         <v>54.891999999999996</v>
       </c>
       <c r="L764" s="72">
-        <v>36.462000000000018</v>
+        <v>36.461999999999989</v>
       </c>
       <c r="M764" s="72">
-        <v>79.878000000000014</v>
+        <v>79.878</v>
       </c>
       <c r="N764" s="72">
-        <v>91.354000000000013</v>
+        <v>91.353999999999985</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.25">
@@ -39977,13 +39977,13 @@
         <v>39.28</v>
       </c>
       <c r="L770" s="72">
-        <v>42.221999999999994</v>
+        <v>42.222000000000008</v>
       </c>
       <c r="M770" s="72">
         <v>0.46</v>
       </c>
       <c r="N770" s="72">
-        <v>81.501999999999995</v>
+        <v>81.50200000000001</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -40018,13 +40018,13 @@
         <v>70</v>
       </c>
       <c r="K771" s="72">
-        <v>46.266000000000005</v>
+        <v>46.265999999999998</v>
       </c>
       <c r="L771" s="72">
-        <v>62.754000000000005</v>
+        <v>62.754000000000012</v>
       </c>
       <c r="M771" s="72">
-        <v>18.747999999999998</v>
+        <v>18.748000000000005</v>
       </c>
       <c r="N771" s="72">
         <v>109.02000000000001</v>
@@ -44969,13 +44969,13 @@
         <v>140.68700000000001</v>
       </c>
       <c r="L887" s="72">
-        <v>134.30899999999997</v>
+        <v>134.30900000000003</v>
       </c>
       <c r="M887" s="72">
         <v>1.1020000000000001</v>
       </c>
       <c r="N887" s="72">
-        <v>274.99599999999998</v>
+        <v>274.99600000000004</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.25">
@@ -45013,13 +45013,13 @@
         <v>186.84800000000001</v>
       </c>
       <c r="L888" s="72">
-        <v>230.36200000000002</v>
+        <v>230.36199999999997</v>
       </c>
       <c r="M888" s="72">
         <v>44.634</v>
       </c>
       <c r="N888" s="72">
-        <v>417.21000000000004</v>
+        <v>417.21</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.25">
@@ -45057,13 +45057,13 @@
         <v>80.808999999999997</v>
       </c>
       <c r="L889" s="72">
-        <v>308.79899999999998</v>
+        <v>308.79900000000009</v>
       </c>
       <c r="M889" s="72">
         <v>108.411</v>
       </c>
       <c r="N889" s="72">
-        <v>389.608</v>
+        <v>389.60800000000006</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.25">
@@ -45098,13 +45098,13 @@
         <v>70</v>
       </c>
       <c r="K890" s="72">
-        <v>177.428</v>
+        <v>177.42799999999997</v>
       </c>
       <c r="L890" s="72">
-        <v>148.63900000000001</v>
+        <v>148.63900000000004</v>
       </c>
       <c r="M890" s="72">
-        <v>240.96900000000002</v>
+        <v>240.96899999999999</v>
       </c>
       <c r="N890" s="72">
         <v>326.06700000000001</v>
@@ -45145,13 +45145,13 @@
         <v>66.111999999999995</v>
       </c>
       <c r="L891" s="72">
-        <v>276.53899999999999</v>
+        <v>276.5390000000001</v>
       </c>
       <c r="M891" s="72">
-        <v>49.528000000000006</v>
+        <v>49.527999999999992</v>
       </c>
       <c r="N891" s="72">
-        <v>342.65099999999995</v>
+        <v>342.65100000000007</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.25">
@@ -45189,13 +45189,13 @@
         <v>39.103999999999999</v>
       </c>
       <c r="L892" s="72">
-        <v>175.69799999999998</v>
+        <v>175.69800000000004</v>
       </c>
       <c r="M892" s="72">
         <v>166.953</v>
       </c>
       <c r="N892" s="72">
-        <v>214.80199999999996</v>
+        <v>214.80200000000002</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.25">
@@ -45350,10 +45350,10 @@
         <v>70</v>
       </c>
       <c r="K896" s="72">
-        <v>55.768999999999998</v>
+        <v>55.768999999999991</v>
       </c>
       <c r="L896" s="72">
-        <v>55.955999999999996</v>
+        <v>55.956000000000003</v>
       </c>
       <c r="M896" s="72">
         <v>0.45899999999999996</v>
@@ -45397,13 +45397,13 @@
         <v>75.304000000000002</v>
       </c>
       <c r="L897" s="72">
-        <v>93.592000000000013</v>
+        <v>93.591999999999985</v>
       </c>
       <c r="M897" s="72">
         <v>18.133000000000003</v>
       </c>
       <c r="N897" s="72">
-        <v>168.89600000000002</v>
+        <v>168.89599999999999</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.25">
@@ -45488,7 +45488,7 @@
         <v>61.369000000000014</v>
       </c>
       <c r="M899" s="72">
-        <v>107.60299999999998</v>
+        <v>107.60300000000001</v>
       </c>
       <c r="N899" s="72">
         <v>124.21000000000001</v>
@@ -45570,16 +45570,16 @@
         <v>70</v>
       </c>
       <c r="K901" s="72">
-        <v>16.513999999999999</v>
+        <v>16.514000000000003</v>
       </c>
       <c r="L901" s="72">
-        <v>63.16200000000002</v>
+        <v>63.161999999999999</v>
       </c>
       <c r="M901" s="72">
         <v>59.171000000000006</v>
       </c>
       <c r="N901" s="72">
-        <v>79.676000000000016</v>
+        <v>79.676000000000002</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
@@ -45617,13 +45617,13 @@
         <v>1.1150000000000002</v>
       </c>
       <c r="L902" s="72">
-        <v>39.774000000000001</v>
+        <v>39.773999999999994</v>
       </c>
       <c r="M902" s="72">
         <v>39.902000000000001</v>
       </c>
       <c r="N902" s="72">
-        <v>40.889000000000003</v>
+        <v>40.888999999999996</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
@@ -45737,13 +45737,13 @@
         <v>43.269000000000005</v>
       </c>
       <c r="L905" s="72">
-        <v>44.418999999999997</v>
+        <v>44.419000000000011</v>
       </c>
       <c r="M905" s="72">
         <v>0.36399999999999999</v>
       </c>
       <c r="N905" s="72">
-        <v>87.688000000000002</v>
+        <v>87.688000000000017</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.25">
@@ -45781,13 +45781,13 @@
         <v>58.855000000000004</v>
       </c>
       <c r="L906" s="72">
-        <v>73.460999999999999</v>
+        <v>73.46099999999997</v>
       </c>
       <c r="M906" s="72">
         <v>14.227</v>
       </c>
       <c r="N906" s="72">
-        <v>132.316</v>
+        <v>132.31599999999997</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -45822,10 +45822,10 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>37.591000000000001</v>
+        <v>37.590999999999994</v>
       </c>
       <c r="L907" s="72">
-        <v>98.58499999999998</v>
+        <v>98.584999999999994</v>
       </c>
       <c r="M907" s="72">
         <v>33.731000000000002</v>
@@ -45866,16 +45866,16 @@
         <v>70</v>
       </c>
       <c r="K908" s="72">
-        <v>49.278999999999996</v>
+        <v>49.279000000000003</v>
       </c>
       <c r="L908" s="72">
-        <v>48.44</v>
+        <v>48.440000000000005</v>
       </c>
       <c r="M908" s="72">
-        <v>87.73599999999999</v>
+        <v>87.736000000000004</v>
       </c>
       <c r="N908" s="72">
-        <v>97.718999999999994</v>
+        <v>97.719000000000008</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -51154,13 +51154,13 @@
         <v>70</v>
       </c>
       <c r="K1032" s="72">
-        <v>136.29499999999999</v>
+        <v>136.29500000000002</v>
       </c>
       <c r="L1032" s="72">
-        <v>175.22499999999999</v>
+        <v>175.22499999999997</v>
       </c>
       <c r="M1032" s="72">
-        <v>29.452000000000002</v>
+        <v>29.451999999999998</v>
       </c>
       <c r="N1032" s="72">
         <v>311.52</v>
@@ -51201,13 +51201,13 @@
         <v>82.23</v>
       </c>
       <c r="L1033" s="72">
-        <v>176.55799999999994</v>
+        <v>176.55799999999999</v>
       </c>
       <c r="M1033" s="72">
         <v>134.96199999999999</v>
       </c>
       <c r="N1033" s="72">
-        <v>258.78799999999995</v>
+        <v>258.78800000000001</v>
       </c>
     </row>
     <row r="1034" spans="1:14" x14ac:dyDescent="0.25">
@@ -51245,13 +51245,13 @@
         <v>103.46700000000001</v>
       </c>
       <c r="L1034" s="72">
-        <v>86.104999999999961</v>
+        <v>86.10499999999999</v>
       </c>
       <c r="M1034" s="72">
         <v>172.68299999999999</v>
       </c>
       <c r="N1034" s="72">
-        <v>189.57199999999997</v>
+        <v>189.572</v>
       </c>
     </row>
     <row r="1035" spans="1:14" x14ac:dyDescent="0.25">
@@ -51330,13 +51330,13 @@
         <v>70</v>
       </c>
       <c r="K1036" s="72">
-        <v>22.593000000000004</v>
+        <v>22.593</v>
       </c>
       <c r="L1036" s="72">
-        <v>151.53699999999998</v>
+        <v>151.53700000000001</v>
       </c>
       <c r="M1036" s="72">
-        <v>96.001000000000019</v>
+        <v>96.001000000000005</v>
       </c>
       <c r="N1036" s="72">
         <v>174.13</v>
@@ -51497,13 +51497,13 @@
         <v>53.480000000000004</v>
       </c>
       <c r="L1040" s="72">
-        <v>41.668999999999997</v>
+        <v>41.669000000000011</v>
       </c>
       <c r="M1040" s="72">
         <v>3.8079999999999998</v>
       </c>
       <c r="N1040" s="72">
-        <v>95.149000000000001</v>
+        <v>95.149000000000015</v>
       </c>
     </row>
     <row r="1041" spans="1:14" x14ac:dyDescent="0.25">
@@ -51541,13 +51541,13 @@
         <v>59.376999999999995</v>
       </c>
       <c r="L1041" s="72">
-        <v>73.999000000000009</v>
+        <v>73.999000000000038</v>
       </c>
       <c r="M1041" s="72">
         <v>21.15</v>
       </c>
       <c r="N1041" s="72">
-        <v>133.376</v>
+        <v>133.37600000000003</v>
       </c>
     </row>
     <row r="1042" spans="1:14" x14ac:dyDescent="0.25">
@@ -51585,13 +51585,13 @@
         <v>43.096000000000004</v>
       </c>
       <c r="L1042" s="72">
-        <v>76.685000000000002</v>
+        <v>76.685000000000016</v>
       </c>
       <c r="M1042" s="72">
         <v>56.691000000000003</v>
       </c>
       <c r="N1042" s="72">
-        <v>119.78100000000001</v>
+        <v>119.78100000000002</v>
       </c>
     </row>
     <row r="1043" spans="1:14" x14ac:dyDescent="0.25">
@@ -51676,7 +51676,7 @@
         <v>62.736000000000004</v>
       </c>
       <c r="M1044" s="72">
-        <v>28.516999999999999</v>
+        <v>28.517000000000003</v>
       </c>
       <c r="N1044" s="72">
         <v>103.852</v>
@@ -51761,13 +51761,13 @@
         <v>4.3769999999999998</v>
       </c>
       <c r="L1046" s="72">
-        <v>29.000000000000011</v>
+        <v>29.000000000000004</v>
       </c>
       <c r="M1046" s="72">
         <v>36.778999999999996</v>
       </c>
       <c r="N1046" s="72">
-        <v>33.37700000000001</v>
+        <v>33.377000000000002</v>
       </c>
     </row>
     <row r="1047" spans="1:14" x14ac:dyDescent="0.25">
@@ -51805,7 +51805,7 @@
         <v>0</v>
       </c>
       <c r="M1047" s="72">
-        <v>33.37700000000001</v>
+        <v>33.377000000000002</v>
       </c>
       <c r="N1047" s="72">
         <v>0</v>
@@ -51834,7 +51834,7 @@
         <v>70</v>
       </c>
       <c r="K1048" s="72">
-        <v>35.260999999999996</v>
+        <v>35.26100000000001</v>
       </c>
       <c r="L1048" s="72">
         <v>0</v>
@@ -51843,7 +51843,7 @@
         <v>0</v>
       </c>
       <c r="N1048" s="72">
-        <v>35.260999999999996</v>
+        <v>35.26100000000001</v>
       </c>
     </row>
     <row r="1049" spans="1:14" x14ac:dyDescent="0.25">
@@ -51925,13 +51925,13 @@
         <v>51.364000000000004</v>
       </c>
       <c r="L1050" s="72">
-        <v>59.094999999999999</v>
+        <v>59.094999999999985</v>
       </c>
       <c r="M1050" s="72">
-        <v>13.356000000000002</v>
+        <v>13.356</v>
       </c>
       <c r="N1050" s="72">
-        <v>110.459</v>
+        <v>110.45899999999999</v>
       </c>
     </row>
     <row r="1051" spans="1:14" x14ac:dyDescent="0.25">
@@ -51972,7 +51972,7 @@
         <v>61.963999999999999</v>
       </c>
       <c r="M1051" s="72">
-        <v>48.494999999999997</v>
+        <v>48.495000000000005</v>
       </c>
       <c r="N1051" s="72">
         <v>100.36199999999999</v>
@@ -52013,13 +52013,13 @@
         <v>44.216999999999999</v>
       </c>
       <c r="L1052" s="72">
-        <v>32.302999999999997</v>
+        <v>32.303000000000011</v>
       </c>
       <c r="M1052" s="72">
         <v>68.058999999999997</v>
       </c>
       <c r="N1052" s="72">
-        <v>76.52</v>
+        <v>76.52000000000001</v>
       </c>
     </row>
     <row r="1053" spans="1:14" x14ac:dyDescent="0.25">
@@ -52060,7 +52060,7 @@
         <v>0</v>
       </c>
       <c r="M1053" s="72">
-        <v>26.065999999999999</v>
+        <v>26.066000000000003</v>
       </c>
       <c r="N1053" s="72">
         <v>0</v>
@@ -52218,7 +52218,7 @@
         <v>70</v>
       </c>
       <c r="K1057" s="72">
-        <v>33.471999999999994</v>
+        <v>33.472000000000001</v>
       </c>
       <c r="L1057" s="72">
         <v>0</v>
@@ -52227,7 +52227,7 @@
         <v>0</v>
       </c>
       <c r="N1057" s="72">
-        <v>33.471999999999994</v>
+        <v>33.472000000000001</v>
       </c>
     </row>
     <row r="1058" spans="1:14" x14ac:dyDescent="0.25">
@@ -52265,13 +52265,13 @@
         <v>37.650999999999996</v>
       </c>
       <c r="L1058" s="72">
-        <v>30.512999999999991</v>
+        <v>30.513000000000005</v>
       </c>
       <c r="M1058" s="72">
         <v>2.9589999999999996</v>
       </c>
       <c r="N1058" s="72">
-        <v>68.163999999999987</v>
+        <v>68.164000000000001</v>
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
@@ -57298,10 +57298,10 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>127.40100000000001</v>
+        <v>127.40099999999998</v>
       </c>
       <c r="L1176" s="72">
-        <v>186.36700000000002</v>
+        <v>186.36700000000005</v>
       </c>
       <c r="M1176" s="72">
         <v>36.091999999999999</v>
@@ -57342,7 +57342,7 @@
         <v>70</v>
       </c>
       <c r="K1177" s="72">
-        <v>72.025999999999996</v>
+        <v>72.02600000000001</v>
       </c>
       <c r="L1177" s="72">
         <v>169.84000000000003</v>
@@ -57351,7 +57351,7 @@
         <v>143.928</v>
       </c>
       <c r="N1177" s="72">
-        <v>241.86600000000001</v>
+        <v>241.86600000000004</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57392,7 +57392,7 @@
         <v>57.855999999999995</v>
       </c>
       <c r="M1178" s="72">
-        <v>184.01000000000002</v>
+        <v>184.01</v>
       </c>
       <c r="N1178" s="72">
         <v>123.98399999999999</v>
@@ -57430,16 +57430,16 @@
         <v>70</v>
       </c>
       <c r="K1179" s="72">
-        <v>148.602</v>
+        <v>148.60200000000003</v>
       </c>
       <c r="L1179" s="72">
-        <v>72.818000000000012</v>
+        <v>72.817999999999955</v>
       </c>
       <c r="M1179" s="72">
         <v>51.165999999999997</v>
       </c>
       <c r="N1179" s="72">
-        <v>221.42000000000002</v>
+        <v>221.42</v>
       </c>
     </row>
     <row r="1180" spans="1:14" x14ac:dyDescent="0.25">
@@ -57477,13 +57477,13 @@
         <v>55.275000000000006</v>
       </c>
       <c r="L1180" s="72">
-        <v>155.36199999999999</v>
+        <v>155.36200000000002</v>
       </c>
       <c r="M1180" s="72">
         <v>66.058000000000007</v>
       </c>
       <c r="N1180" s="72">
-        <v>210.637</v>
+        <v>210.63700000000003</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57521,13 +57521,13 @@
         <v>15.141999999999999</v>
       </c>
       <c r="L1181" s="72">
-        <v>94.637</v>
+        <v>94.637000000000015</v>
       </c>
       <c r="M1181" s="72">
-        <v>116.00000000000001</v>
+        <v>116</v>
       </c>
       <c r="N1181" s="72">
-        <v>109.779</v>
+        <v>109.77900000000001</v>
       </c>
     </row>
     <row r="1182" spans="1:14" x14ac:dyDescent="0.25">
@@ -57565,7 +57565,7 @@
         <v>0</v>
       </c>
       <c r="M1182" s="72">
-        <v>109.779</v>
+        <v>109.77900000000001</v>
       </c>
       <c r="N1182" s="72">
         <v>0</v>
@@ -57594,7 +57594,7 @@
         <v>70</v>
       </c>
       <c r="K1183" s="72">
-        <v>46.427000000000007</v>
+        <v>46.427</v>
       </c>
       <c r="L1183" s="72">
         <v>0</v>
@@ -57603,7 +57603,7 @@
         <v>0</v>
       </c>
       <c r="N1183" s="72">
-        <v>46.427000000000007</v>
+        <v>46.427</v>
       </c>
     </row>
     <row r="1184" spans="1:14" x14ac:dyDescent="0.25">
@@ -57641,13 +57641,13 @@
         <v>52.683999999999997</v>
       </c>
       <c r="L1184" s="72">
-        <v>42.427000000000021</v>
+        <v>42.426999999999992</v>
       </c>
       <c r="M1184" s="72">
         <v>4</v>
       </c>
       <c r="N1184" s="72">
-        <v>95.111000000000018</v>
+        <v>95.11099999999999</v>
       </c>
     </row>
     <row r="1185" spans="1:14" x14ac:dyDescent="0.25">
@@ -57685,13 +57685,13 @@
         <v>65.269000000000005</v>
       </c>
       <c r="L1185" s="72">
-        <v>79.571999999999974</v>
+        <v>79.572000000000003</v>
       </c>
       <c r="M1185" s="72">
-        <v>15.538999999999998</v>
+        <v>15.539000000000001</v>
       </c>
       <c r="N1185" s="72">
-        <v>144.84099999999998</v>
+        <v>144.84100000000001</v>
       </c>
     </row>
     <row r="1186" spans="1:14" x14ac:dyDescent="0.25">
@@ -57726,7 +57726,7 @@
         <v>70</v>
       </c>
       <c r="K1186" s="72">
-        <v>43.071000000000005</v>
+        <v>43.070999999999998</v>
       </c>
       <c r="L1186" s="72">
         <v>66.453000000000003</v>
@@ -57770,16 +57770,16 @@
         <v>70</v>
       </c>
       <c r="K1187" s="72">
-        <v>38.871000000000009</v>
+        <v>38.871000000000002</v>
       </c>
       <c r="L1187" s="72">
-        <v>24.461000000000013</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="M1187" s="72">
         <v>85.063000000000017</v>
       </c>
       <c r="N1187" s="72">
-        <v>63.332000000000022</v>
+        <v>63.332000000000001</v>
       </c>
     </row>
     <row r="1188" spans="1:14" x14ac:dyDescent="0.25">
@@ -57817,13 +57817,13 @@
         <v>57.533999999999999</v>
       </c>
       <c r="L1188" s="72">
-        <v>27.656000000000027</v>
+        <v>27.656000000000013</v>
       </c>
       <c r="M1188" s="72">
-        <v>35.675999999999995</v>
+        <v>35.676000000000002</v>
       </c>
       <c r="N1188" s="72">
-        <v>85.190000000000026</v>
+        <v>85.190000000000012</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57858,10 +57858,10 @@
         <v>70</v>
       </c>
       <c r="K1189" s="72">
-        <v>18.769000000000002</v>
+        <v>18.768999999999998</v>
       </c>
       <c r="L1189" s="72">
-        <v>57.388000000000005</v>
+        <v>57.388000000000012</v>
       </c>
       <c r="M1189" s="72">
         <v>27.802</v>
@@ -58022,16 +58022,16 @@
         <v>70</v>
       </c>
       <c r="K1193" s="72">
-        <v>41.841000000000001</v>
+        <v>41.841000000000008</v>
       </c>
       <c r="L1193" s="72">
-        <v>34.488000000000007</v>
+        <v>34.487999999999985</v>
       </c>
       <c r="M1193" s="72">
         <v>3.25</v>
       </c>
       <c r="N1193" s="72">
-        <v>76.329000000000008</v>
+        <v>76.328999999999994</v>
       </c>
     </row>
     <row r="1194" spans="1:14" x14ac:dyDescent="0.25">
@@ -58069,13 +58069,13 @@
         <v>43.132000000000005</v>
       </c>
       <c r="L1194" s="72">
-        <v>63.814999999999984</v>
+        <v>63.814999999999998</v>
       </c>
       <c r="M1194" s="72">
-        <v>12.514000000000003</v>
+        <v>12.514000000000001</v>
       </c>
       <c r="N1194" s="72">
-        <v>106.94699999999999</v>
+        <v>106.947</v>
       </c>
     </row>
     <row r="1195" spans="1:14" x14ac:dyDescent="0.25">
@@ -58110,13 +58110,13 @@
         <v>70</v>
       </c>
       <c r="K1195" s="72">
-        <v>38.51</v>
+        <v>38.509999999999991</v>
       </c>
       <c r="L1195" s="72">
-        <v>51.326999999999991</v>
+        <v>51.326999999999998</v>
       </c>
       <c r="M1195" s="72">
-        <v>55.62</v>
+        <v>55.620000000000005</v>
       </c>
       <c r="N1195" s="72">
         <v>89.836999999999989</v>
@@ -58157,13 +58157,13 @@
         <v>34.340000000000003</v>
       </c>
       <c r="L1196" s="72">
-        <v>19.505999999999993</v>
+        <v>19.506</v>
       </c>
       <c r="M1196" s="72">
         <v>70.331000000000003</v>
       </c>
       <c r="N1196" s="72">
-        <v>53.845999999999997</v>
+        <v>53.846000000000004</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
@@ -58362,7 +58362,7 @@
         <v>70</v>
       </c>
       <c r="K1201" s="72">
-        <v>36.131000000000007</v>
+        <v>36.131</v>
       </c>
       <c r="L1201" s="72">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="N1201" s="72">
-        <v>36.131000000000007</v>
+        <v>36.131</v>
       </c>
     </row>
     <row r="1202" spans="1:14" x14ac:dyDescent="0.25">
@@ -58406,10 +58406,10 @@
         <v>70</v>
       </c>
       <c r="K1202" s="72">
-        <v>39.493000000000009</v>
+        <v>39.492999999999995</v>
       </c>
       <c r="L1202" s="72">
-        <v>33.019999999999996</v>
+        <v>33.02000000000001</v>
       </c>
       <c r="M1202" s="72">
         <v>3.1109999999999998</v>
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999989</v>
+        <v>258.13924999999995</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.61461726190476162</v>
+        <v>0.61461726190476174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66134,13 +66134,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999972</v>
+        <v>46.930250000000001</v>
       </c>
       <c r="H7" s="72">
         <v>420</v>
       </c>
       <c r="I7" s="76">
-        <v>0.11173869047619041</v>
+        <v>0.11173869047619048</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999986</v>
+        <v>296.44324999999992</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476157</v>
+        <v>0.70581726190476168</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999965</v>
+        <v>76.063999999999908</v>
       </c>
       <c r="H11" s="72">
         <v>420</v>
       </c>
       <c r="I11" s="76">
-        <v>0.18110476190476182</v>
+        <v>0.18110476190476169</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.22424999999981</v>
+        <v>359.2242500000001</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85529583333333292</v>
+        <v>0.85529583333333359</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.00425000000001</v>
+        <v>119.00425000000013</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28334345238095243</v>
+        <v>0.28334345238095271</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66453,13 +66453,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.900000000000027</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571463</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999986</v>
+        <v>50.378000000000007</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.23989523809523802</v>
+        <v>0.23989523809523813</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66511,13 +66511,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>103.20675000000001</v>
+        <v>103.20674999999994</v>
       </c>
       <c r="H20" s="72">
         <v>210</v>
       </c>
       <c r="I20" s="76">
-        <v>0.49146071428571436</v>
+        <v>0.49146071428571403</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -66540,13 +66540,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>80.989750000000043</v>
+        <v>80.989749999999972</v>
       </c>
       <c r="H21" s="72">
         <v>140</v>
       </c>
       <c r="I21" s="76">
-        <v>0.57849821428571457</v>
+        <v>0.57849821428571413</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000016</v>
+        <v>61.13575000000003</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.2911226190476191</v>
+        <v>0.29112261904761921</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000011</v>
+        <v>43.853500000000004</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619053</v>
+        <v>0.2088261904761905</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -66830,13 +66830,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>126.28975000000001</v>
+        <v>126.28974999999998</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.60137976190476194</v>
+        <v>0.60137976190476183</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>91.625750000000025</v>
+        <v>91.625749999999968</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.65446964285714304</v>
+        <v>0.6544696428571426</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66888,13 +66888,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>156.42849999999993</v>
+        <v>156.42850000000004</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.74489761904761875</v>
+        <v>0.7448976190476192</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>550.76724999999976</v>
+        <v>550.76724999999988</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.87423373015872974</v>
+        <v>0.87423373015872996</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66946,13 +66946,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>193.94874999999985</v>
+        <v>193.94875000000002</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.30785515873015851</v>
+        <v>0.30785515873015878</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -67004,13 +67004,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>120.77799999999999</v>
+        <v>120.77800000000001</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.57513333333333327</v>
+        <v>0.57513333333333339</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -67062,13 +67062,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>134.92950000000008</v>
+        <v>134.92950000000002</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.96378214285714336</v>
+        <v>0.96378214285714303</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -67091,13 +67091,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>43.96725</v>
+        <v>43.967249999999986</v>
       </c>
       <c r="H40" s="72">
         <v>140</v>
       </c>
       <c r="I40" s="76">
-        <v>0.31405178571428571</v>
+        <v>0.3140517857142856</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313250000000011</v>
+        <v>38.313249999999982</v>
       </c>
       <c r="H45" s="72">
         <v>140</v>
       </c>
       <c r="I45" s="76">
-        <v>0.27366607142857152</v>
+        <v>0.2736660714285713</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67265,13 +67265,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>386.54475000000014</v>
+        <v>386.54474999999991</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>0.92034464285714312</v>
+        <v>0.92034464285714268</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>260.70424999999994</v>
+        <v>260.70424999999977</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.6207244047619046</v>
+        <v>0.62072440476190427</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>98.954999999999998</v>
+        <v>98.954999999999984</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
       </c>
       <c r="I48" s="76">
-        <v>0.4712142857142857</v>
+        <v>0.47121428571428564</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>188.78399999999999</v>
+        <v>188.78400000000008</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.89897142857142853</v>
+        <v>0.89897142857142898</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>287.11599999999999</v>
+        <v>287.11599999999976</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.68360952380952378</v>
+        <v>0.68360952380952322</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>401.59749999999963</v>
+        <v>401.59749999999985</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.9561845238095229</v>
+        <v>0.95618452380952346</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>331.49799999999988</v>
+        <v>331.49799999999971</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.52618730158730143</v>
+        <v>0.52618730158730109</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67468,13 +67468,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>340.75799999999981</v>
+        <v>340.75800000000004</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.54088571428571397</v>
+        <v>0.5408857142857143</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -67555,13 +67555,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>128.22174999999996</v>
+        <v>128.22174999999993</v>
       </c>
       <c r="H56" s="72">
         <v>210</v>
       </c>
       <c r="I56" s="76">
-        <v>0.61057976190476171</v>
+        <v>0.6105797619047616</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -67584,13 +67584,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>166.96599999999987</v>
+        <v>166.96600000000004</v>
       </c>
       <c r="H57" s="72">
         <v>210</v>
       </c>
       <c r="I57" s="76">
-        <v>0.79507619047618983</v>
+        <v>0.7950761904761906</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.13050000000001</v>
+        <v>126.13049999999997</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142864</v>
+        <v>0.60062142857142842</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.263999999999982</v>
+        <v>79.263999999999996</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.37744761904761898</v>
+        <v>0.37744761904761903</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>153.20824999999988</v>
+        <v>153.20824999999996</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.72956309523809471</v>
+        <v>0.72956309523809504</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67816,13 +67816,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>114.47750000000002</v>
+        <v>114.47750000000005</v>
       </c>
       <c r="H65" s="72">
         <v>140</v>
       </c>
       <c r="I65" s="76">
-        <v>0.81769642857142877</v>
+        <v>0.81769642857142888</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -67845,13 +67845,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>71.546750000000003</v>
+        <v>71.546750000000017</v>
       </c>
       <c r="H66" s="72">
         <v>140</v>
       </c>
       <c r="I66" s="76">
-        <v>0.51104821428571434</v>
+        <v>0.51104821428571445</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -67874,13 +67874,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>110.01474999999994</v>
+        <v>110.01474999999992</v>
       </c>
       <c r="H67" s="72">
         <v>210</v>
       </c>
       <c r="I67" s="76">
-        <v>0.5238797619047616</v>
+        <v>0.52387976190476149</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -67961,13 +67961,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.0017499999999</v>
+        <v>234.00174999999996</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
       </c>
       <c r="I70" s="76">
-        <v>0.55714702380952352</v>
+        <v>0.55714702380952374</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -68019,13 +68019,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.39524999999999</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285711</v>
+        <v>0.21616785714285719</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000004</v>
+        <v>56.677999999999983</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523813</v>
+        <v>0.26989523809523802</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.47775</v>
+        <v>54.477749999999993</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.25941785714285714</v>
+        <v>0.25941785714285709</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68309,13 +68309,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11725000000001</v>
+        <v>192.1172500000001</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.9148440476190477</v>
+        <v>0.91484404761904814</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000008</v>
+        <v>168.25125000000006</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142892</v>
+        <v>0.80119642857142881</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999992</v>
+        <v>40.552000000000007</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476186</v>
+        <v>0.19310476190476195</v>
       </c>
     </row>
   </sheetData>
